--- a/functions/time/Disturbances_EDTF.xlsx
+++ b/functions/time/Disturbances_EDTF.xlsx
@@ -1,12 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\functions\time\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA2F6A-8509-44E4-B313-54EA1B4EC587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -313,29 +334,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -346,7 +368,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -368,7 +390,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -382,54 +410,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -619,23 +645,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="22.5"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,9 +733,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
@@ -720,11 +756,11 @@
         <v>25</v>
       </c>
       <c r="H2" s="6">
-        <v>38107.0</v>
+        <v>38107</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8" t="str">
-        <f t="shared" ref="J2:J219" si="1">if(G2="Occurred before",".."&amp;year(H2)&amp;"-"&amp;right("0"&amp;month(H2),2)&amp;"-"&amp;right("0"&amp;day(H2),2),if(G2="Occurred between",year(H2)&amp;"-"&amp;right("0"&amp;month(H2),2)&amp;"-"&amp;right("0"&amp;day(H2),2)&amp;":"&amp;year(I2)&amp;"-"&amp;right("0"&amp;month(I2),2)&amp;"-"&amp;right("0"&amp;day(I2),2),year(H2)&amp;"-"&amp;right("0"&amp;month(H2),2)&amp;"-"&amp;right("0"&amp;day(H2),2)))</f>
+        <f t="shared" ref="J2:J219" si="0">IF(G2="Occurred before",".."&amp;YEAR(H2)&amp;"-"&amp;RIGHT("0"&amp;MONTH(H2),2)&amp;"-"&amp;RIGHT("0"&amp;DAY(H2),2),IF(G2="Occurred between",YEAR(H2)&amp;"-"&amp;RIGHT("0"&amp;MONTH(H2),2)&amp;"-"&amp;RIGHT("0"&amp;DAY(H2),2)&amp;":"&amp;YEAR(I2)&amp;"-"&amp;RIGHT("0"&amp;MONTH(I2),2)&amp;"-"&amp;RIGHT("0"&amp;DAY(I2),2),YEAR(H2)&amp;"-"&amp;RIGHT("0"&amp;MONTH(H2),2)&amp;"-"&amp;RIGHT("0"&amp;DAY(H2),2)))</f>
         <v>..2004-04-30</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -758,9 +794,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
@@ -781,11 +817,11 @@
         <v>25</v>
       </c>
       <c r="H3" s="6">
-        <v>38107.0</v>
+        <v>38107</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-04-30</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -819,9 +855,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
@@ -842,11 +878,11 @@
         <v>25</v>
       </c>
       <c r="H4" s="6">
-        <v>38107.0</v>
+        <v>38107</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-04-30</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -880,9 +916,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
@@ -903,13 +939,13 @@
         <v>37</v>
       </c>
       <c r="H5" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I5" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-05-16:2011-06-10</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -943,9 +979,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
@@ -966,13 +1002,13 @@
         <v>37</v>
       </c>
       <c r="H6" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I6" s="6">
-        <v>41392.0</v>
+        <v>41392</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011-06-10:2013-04-28</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -1006,9 +1042,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
@@ -1029,13 +1065,13 @@
         <v>37</v>
       </c>
       <c r="H7" s="6">
-        <v>41392.0</v>
+        <v>41392</v>
       </c>
       <c r="I7" s="6">
-        <v>42120.0</v>
+        <v>42120</v>
       </c>
       <c r="J7" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2013-04-28:2015-04-26</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -1069,9 +1105,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
@@ -1092,13 +1128,13 @@
         <v>37</v>
       </c>
       <c r="H8" s="6">
-        <v>42120.0</v>
+        <v>42120</v>
       </c>
       <c r="I8" s="6">
-        <v>42458.0</v>
+        <v>42458</v>
       </c>
       <c r="J8" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-04-26:2016-03-29</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -1132,9 +1168,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
@@ -1155,13 +1191,13 @@
         <v>37</v>
       </c>
       <c r="H9" s="6">
-        <v>42458.0</v>
+        <v>42458</v>
       </c>
       <c r="I9" s="6">
-        <v>42701.0</v>
+        <v>42701</v>
       </c>
       <c r="J9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-03-29:2016-11-27</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -1195,9 +1231,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
@@ -1218,11 +1254,11 @@
         <v>25</v>
       </c>
       <c r="H10" s="6">
-        <v>42669.0</v>
+        <v>42669</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-10-26</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1256,9 +1292,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
@@ -1279,13 +1315,13 @@
         <v>37</v>
       </c>
       <c r="H11" s="6">
-        <v>42728.0</v>
+        <v>42728</v>
       </c>
       <c r="I11" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-12-24:2017-02-20</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -1319,9 +1355,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -1342,13 +1378,13 @@
         <v>37</v>
       </c>
       <c r="H12" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I12" s="6">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20:2018-01-29</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -1382,9 +1418,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
@@ -1405,11 +1441,11 @@
         <v>25</v>
       </c>
       <c r="H13" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -1443,9 +1479,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>43</v>
@@ -1466,11 +1502,11 @@
         <v>25</v>
       </c>
       <c r="H14" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -1504,9 +1540,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>43</v>
@@ -1527,13 +1563,13 @@
         <v>37</v>
       </c>
       <c r="H15" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I15" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2004-12-31:2009-05-16</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -1567,9 +1603,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>43</v>
@@ -1590,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="H16" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I16" s="6">
-        <v>43568.0</v>
+        <v>43568</v>
       </c>
       <c r="J16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2004-12-31:2019-04-13</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -1630,9 +1666,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -1653,11 +1689,11 @@
         <v>25</v>
       </c>
       <c r="H17" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-16</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -1691,9 +1727,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>43</v>
@@ -1714,13 +1750,13 @@
         <v>37</v>
       </c>
       <c r="H18" s="6">
-        <v>40674.0</v>
+        <v>40674</v>
       </c>
       <c r="I18" s="6">
-        <v>41392.0</v>
+        <v>41392</v>
       </c>
       <c r="J18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011-05-11:2013-04-28</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -1754,9 +1790,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>43</v>
@@ -1777,13 +1813,13 @@
         <v>37</v>
       </c>
       <c r="H19" s="6">
-        <v>41831.0</v>
+        <v>41831</v>
       </c>
       <c r="I19" s="6">
-        <v>42120.0</v>
+        <v>42120</v>
       </c>
       <c r="J19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014-07-11:2015-04-26</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -1817,9 +1853,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>43</v>
@@ -1840,13 +1876,13 @@
         <v>37</v>
       </c>
       <c r="H20" s="6">
-        <v>42120.0</v>
+        <v>42120</v>
       </c>
       <c r="I20" s="6">
-        <v>42449.0</v>
+        <v>42449</v>
       </c>
       <c r="J20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-04-26:2016-03-20</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1880,9 +1916,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>43</v>
@@ -1903,13 +1939,13 @@
         <v>37</v>
       </c>
       <c r="H21" s="6">
-        <v>42287.0</v>
+        <v>42287</v>
       </c>
       <c r="I21" s="6">
-        <v>42449.0</v>
+        <v>42449</v>
       </c>
       <c r="J21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-10-10:2016-03-20</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -1943,9 +1979,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>43</v>
@@ -1966,11 +2002,11 @@
         <v>25</v>
       </c>
       <c r="H22" s="6">
-        <v>42665.0</v>
+        <v>42665</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-10-22</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -2004,9 +2040,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>43</v>
@@ -2027,11 +2063,11 @@
         <v>56</v>
       </c>
       <c r="H23" s="6">
-        <v>42512.0</v>
+        <v>42512</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-05-22</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -2065,9 +2101,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>43</v>
@@ -2088,13 +2124,13 @@
         <v>37</v>
       </c>
       <c r="H24" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I24" s="6">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="J24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20:2018-01-29</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -2128,9 +2164,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>58</v>
@@ -2151,11 +2187,11 @@
         <v>25</v>
       </c>
       <c r="H25" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -2189,9 +2225,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>58</v>
@@ -2212,11 +2248,11 @@
         <v>25</v>
       </c>
       <c r="H26" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -2250,9 +2286,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>58</v>
@@ -2273,11 +2309,11 @@
         <v>25</v>
       </c>
       <c r="H27" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -2311,9 +2347,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>58</v>
@@ -2334,11 +2370,11 @@
         <v>25</v>
       </c>
       <c r="H28" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2015-06-30</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -2372,9 +2408,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>58</v>
@@ -2395,13 +2431,13 @@
         <v>37</v>
       </c>
       <c r="H29" s="6">
-        <v>42631.0</v>
+        <v>42631</v>
       </c>
       <c r="I29" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="J29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-09-18:2017-02-20</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -2435,9 +2471,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>58</v>
@@ -2458,13 +2494,13 @@
         <v>37</v>
       </c>
       <c r="H30" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I30" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20:2018-02-07</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -2498,9 +2534,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>58</v>
@@ -2521,13 +2557,13 @@
         <v>37</v>
       </c>
       <c r="H31" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I31" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J31" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20:2018-02-07</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -2561,9 +2597,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>58</v>
@@ -2584,11 +2620,11 @@
         <v>25</v>
       </c>
       <c r="H32" s="6">
-        <v>38351.0</v>
+        <v>38351</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-30</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -2622,9 +2658,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>58</v>
@@ -2645,11 +2681,11 @@
         <v>25</v>
       </c>
       <c r="H33" s="6">
-        <v>38351.0</v>
+        <v>38351</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-30</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -2683,9 +2719,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>65</v>
@@ -2706,11 +2742,11 @@
         <v>25</v>
       </c>
       <c r="H34" s="6">
-        <v>38351.0</v>
+        <v>38351</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-30</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -2744,9 +2780,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>65</v>
@@ -2767,11 +2803,11 @@
         <v>25</v>
       </c>
       <c r="H35" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -2805,9 +2841,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>65</v>
@@ -2828,11 +2864,11 @@
         <v>25</v>
       </c>
       <c r="H36" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -2866,9 +2902,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>65</v>
@@ -2889,11 +2925,11 @@
         <v>25</v>
       </c>
       <c r="H37" s="6">
-        <v>38351.0</v>
+        <v>38351</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-30</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -2927,9 +2963,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>65</v>
@@ -2950,11 +2986,11 @@
         <v>25</v>
       </c>
       <c r="H38" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2015-06-30</v>
       </c>
       <c r="K38" s="5" t="s">
@@ -2988,9 +3024,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>65</v>
@@ -3011,11 +3047,11 @@
         <v>56</v>
       </c>
       <c r="H39" s="6">
-        <v>42482.0</v>
+        <v>42482</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-04-22</v>
       </c>
       <c r="K39" s="5" t="s">
@@ -3049,9 +3085,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>65</v>
@@ -3072,13 +3108,13 @@
         <v>37</v>
       </c>
       <c r="H40" s="6">
-        <v>42512.0</v>
+        <v>42512</v>
       </c>
       <c r="I40" s="6">
-        <v>42564.0</v>
+        <v>42564</v>
       </c>
       <c r="J40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-05-22:2016-07-13</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -3112,9 +3148,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>65</v>
@@ -3135,13 +3171,13 @@
         <v>37</v>
       </c>
       <c r="H41" s="6">
-        <v>42728.0</v>
+        <v>42728</v>
       </c>
       <c r="I41" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="J41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-12-24:2017-04-20</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -3175,9 +3211,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>65</v>
@@ -3198,13 +3234,13 @@
         <v>37</v>
       </c>
       <c r="H42" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I42" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20:2018-02-07</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -3238,9 +3274,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>65</v>
@@ -3261,11 +3297,11 @@
         <v>56</v>
       </c>
       <c r="H43" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-02-07</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -3299,9 +3335,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>68</v>
@@ -3322,11 +3358,11 @@
         <v>25</v>
       </c>
       <c r="H44" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -3360,9 +3396,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>68</v>
@@ -3383,11 +3419,11 @@
         <v>25</v>
       </c>
       <c r="H45" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K45" s="5" t="s">
@@ -3421,9 +3457,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>68</v>
@@ -3444,11 +3480,11 @@
         <v>25</v>
       </c>
       <c r="H46" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K46" s="5" t="s">
@@ -3482,9 +3518,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>68</v>
@@ -3505,11 +3541,11 @@
         <v>25</v>
       </c>
       <c r="H47" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -3543,9 +3579,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>68</v>
@@ -3566,11 +3602,11 @@
         <v>25</v>
       </c>
       <c r="H48" s="6">
-        <v>40097.0</v>
+        <v>40097</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-10-11</v>
       </c>
       <c r="K48" s="5" t="s">
@@ -3604,9 +3640,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>68</v>
@@ -3627,11 +3663,11 @@
         <v>25</v>
       </c>
       <c r="H49" s="6">
-        <v>40097.0</v>
+        <v>40097</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-10-11</v>
       </c>
       <c r="K49" s="5" t="s">
@@ -3665,9 +3701,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>68</v>
@@ -3688,11 +3724,11 @@
         <v>25</v>
       </c>
       <c r="H50" s="6">
-        <v>40097.0</v>
+        <v>40097</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-10-11</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -3726,9 +3762,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>68</v>
@@ -3749,13 +3785,13 @@
         <v>37</v>
       </c>
       <c r="H51" s="6">
-        <v>40097.0</v>
+        <v>40097</v>
       </c>
       <c r="I51" s="6">
-        <v>40674.0</v>
+        <v>40674</v>
       </c>
       <c r="J51" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-10-11:2011-05-11</v>
       </c>
       <c r="K51" s="5" t="s">
@@ -3789,9 +3825,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>68</v>
@@ -3812,13 +3848,13 @@
         <v>37</v>
       </c>
       <c r="H52" s="6">
-        <v>40674.0</v>
+        <v>40674</v>
       </c>
       <c r="I52" s="6">
-        <v>41392.0</v>
+        <v>41392</v>
       </c>
       <c r="J52" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011-05-11:2013-04-28</v>
       </c>
       <c r="K52" s="5" t="s">
@@ -3852,9 +3888,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>68</v>
@@ -3875,13 +3911,13 @@
         <v>37</v>
       </c>
       <c r="H53" s="6">
-        <v>41392.0</v>
+        <v>41392</v>
       </c>
       <c r="I53" s="6">
-        <v>42120.0</v>
+        <v>42120</v>
       </c>
       <c r="J53" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2013-04-28:2015-04-26</v>
       </c>
       <c r="K53" s="5" t="s">
@@ -3915,9 +3951,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>68</v>
@@ -3938,13 +3974,13 @@
         <v>37</v>
       </c>
       <c r="H54" s="6">
-        <v>42120.0</v>
+        <v>42120</v>
       </c>
       <c r="I54" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="J54" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-04-26:2015-06-30</v>
       </c>
       <c r="K54" s="5" t="s">
@@ -3978,9 +4014,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>68</v>
@@ -4001,13 +4037,13 @@
         <v>37</v>
       </c>
       <c r="H55" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="I55" s="6">
-        <v>42458.0</v>
+        <v>42458</v>
       </c>
       <c r="J55" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-06-30:2016-03-29</v>
       </c>
       <c r="K55" s="5" t="s">
@@ -4041,9 +4077,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>68</v>
@@ -4064,11 +4100,11 @@
         <v>25</v>
       </c>
       <c r="H56" s="6">
-        <v>42664.0</v>
+        <v>42664</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-10-21</v>
       </c>
       <c r="K56" s="5" t="s">
@@ -4102,9 +4138,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>68</v>
@@ -4125,13 +4161,13 @@
         <v>37</v>
       </c>
       <c r="H57" s="6">
-        <v>42682.0</v>
+        <v>42682</v>
       </c>
       <c r="I57" s="6">
-        <v>42728.0</v>
+        <v>42728</v>
       </c>
       <c r="J57" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-11-08:2016-12-24</v>
       </c>
       <c r="K57" s="5" t="s">
@@ -4165,9 +4201,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>68</v>
@@ -4188,13 +4224,13 @@
         <v>37</v>
       </c>
       <c r="H58" s="6">
-        <v>42682.0</v>
+        <v>42682</v>
       </c>
       <c r="I58" s="6">
-        <v>42728.0</v>
+        <v>42728</v>
       </c>
       <c r="J58" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-11-08:2016-12-24</v>
       </c>
       <c r="K58" s="5" t="s">
@@ -4228,9 +4264,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>68</v>
@@ -4251,13 +4287,13 @@
         <v>37</v>
       </c>
       <c r="H59" s="6">
-        <v>42682.0</v>
+        <v>42682</v>
       </c>
       <c r="I59" s="6">
-        <v>42728.0</v>
+        <v>42728</v>
       </c>
       <c r="J59" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-11-08:2016-12-24</v>
       </c>
       <c r="K59" s="5" t="s">
@@ -4291,9 +4327,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>68</v>
@@ -4314,13 +4350,13 @@
         <v>37</v>
       </c>
       <c r="H60" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I60" s="6">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="J60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20:2018-01-29</v>
       </c>
       <c r="K60" s="5" t="s">
@@ -4354,9 +4390,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>68</v>
@@ -4377,13 +4413,13 @@
         <v>37</v>
       </c>
       <c r="H61" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I61" s="6">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="J61" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20:2018-01-29</v>
       </c>
       <c r="K61" s="5" t="s">
@@ -4417,9 +4453,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>68</v>
@@ -4440,13 +4476,13 @@
         <v>37</v>
       </c>
       <c r="H62" s="6">
-        <v>43192.0</v>
+        <v>43192</v>
       </c>
       <c r="I62" s="6">
-        <v>43213.0</v>
+        <v>43213</v>
       </c>
       <c r="J62" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-04-02:2018-04-23</v>
       </c>
       <c r="K62" s="5" t="s">
@@ -4480,9 +4516,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>75</v>
@@ -4503,11 +4539,11 @@
         <v>25</v>
       </c>
       <c r="H63" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K63" s="5" t="s">
@@ -4541,9 +4577,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>75</v>
@@ -4564,11 +4600,11 @@
         <v>25</v>
       </c>
       <c r="H64" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K64" s="5" t="s">
@@ -4602,9 +4638,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>75</v>
@@ -4625,11 +4661,11 @@
         <v>25</v>
       </c>
       <c r="H65" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K65" s="5" t="s">
@@ -4663,9 +4699,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>75</v>
@@ -4686,11 +4722,11 @@
         <v>25</v>
       </c>
       <c r="H66" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K66" s="5" t="s">
@@ -4724,9 +4760,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>75</v>
@@ -4747,11 +4783,11 @@
         <v>25</v>
       </c>
       <c r="H67" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K67" s="5" t="s">
@@ -4785,9 +4821,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>75</v>
@@ -4808,11 +4844,11 @@
         <v>25</v>
       </c>
       <c r="H68" s="6">
-        <v>40097.0</v>
+        <v>40097</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-10-11</v>
       </c>
       <c r="K68" s="5" t="s">
@@ -4846,9 +4882,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>75</v>
@@ -4869,11 +4905,11 @@
         <v>25</v>
       </c>
       <c r="H69" s="6">
-        <v>40097.0</v>
+        <v>40097</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-10-11</v>
       </c>
       <c r="K69" s="5" t="s">
@@ -4907,9 +4943,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>75</v>
@@ -4930,13 +4966,13 @@
         <v>37</v>
       </c>
       <c r="H70" s="6">
-        <v>41671.0</v>
+        <v>41671</v>
       </c>
       <c r="I70" s="6">
-        <v>41877.0</v>
+        <v>41877</v>
       </c>
       <c r="J70" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014-02-01:2014-08-26</v>
       </c>
       <c r="K70" s="5" t="s">
@@ -4970,9 +5006,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>75</v>
@@ -4993,13 +5029,13 @@
         <v>37</v>
       </c>
       <c r="H71" s="6">
-        <v>41877.0</v>
+        <v>41877</v>
       </c>
       <c r="I71" s="6">
-        <v>42542.0</v>
+        <v>42542</v>
       </c>
       <c r="J71" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014-08-26:2016-06-21</v>
       </c>
       <c r="K71" s="5" t="s">
@@ -5033,9 +5069,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>75</v>
@@ -5056,13 +5092,13 @@
         <v>37</v>
       </c>
       <c r="H72" s="6">
-        <v>41877.0</v>
+        <v>41877</v>
       </c>
       <c r="I72" s="6">
-        <v>42542.0</v>
+        <v>42542</v>
       </c>
       <c r="J72" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014-08-26:2016-06-21</v>
       </c>
       <c r="K72" s="5" t="s">
@@ -5096,9 +5132,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>75</v>
@@ -5119,11 +5155,11 @@
         <v>56</v>
       </c>
       <c r="H73" s="6">
-        <v>42561.0</v>
+        <v>42561</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-07-10</v>
       </c>
       <c r="K73" s="5" t="s">
@@ -5157,9 +5193,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>75</v>
@@ -5180,11 +5216,11 @@
         <v>56</v>
       </c>
       <c r="H74" s="6">
-        <v>42693.0</v>
+        <v>42693</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-11-19</v>
       </c>
       <c r="K74" s="5" t="s">
@@ -5218,9 +5254,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>75</v>
@@ -5241,13 +5277,13 @@
         <v>37</v>
       </c>
       <c r="H75" s="6">
-        <v>42693.0</v>
+        <v>42693</v>
       </c>
       <c r="I75" s="6">
-        <v>42701.0</v>
+        <v>42701</v>
       </c>
       <c r="J75" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-11-19:2016-11-27</v>
       </c>
       <c r="K75" s="5" t="s">
@@ -5281,9 +5317,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>75</v>
@@ -5304,13 +5340,13 @@
         <v>37</v>
       </c>
       <c r="H76" s="6">
-        <v>42701.0</v>
+        <v>42701</v>
       </c>
       <c r="I76" s="6">
-        <v>42855.0</v>
+        <v>42855</v>
       </c>
       <c r="J76" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-11-27:2017-04-30</v>
       </c>
       <c r="K76" s="5" t="s">
@@ -5344,9 +5380,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>75</v>
@@ -5367,13 +5403,13 @@
         <v>37</v>
       </c>
       <c r="H77" s="6">
-        <v>42855.0</v>
+        <v>42855</v>
       </c>
       <c r="I77" s="6">
-        <v>43380.0</v>
+        <v>43380</v>
       </c>
       <c r="J77" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-30:2018-10-07</v>
       </c>
       <c r="K77" s="5" t="s">
@@ -5407,9 +5443,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>77</v>
@@ -5430,11 +5466,11 @@
         <v>25</v>
       </c>
       <c r="H78" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K78" s="5" t="s">
@@ -5468,9 +5504,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>77</v>
@@ -5491,11 +5527,11 @@
         <v>25</v>
       </c>
       <c r="H79" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K79" s="5" t="s">
@@ -5529,9 +5565,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>77</v>
@@ -5552,13 +5588,13 @@
         <v>37</v>
       </c>
       <c r="H80" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="I80" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="J80" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-06-30:2015-10-20</v>
       </c>
       <c r="K80" s="5" t="s">
@@ -5592,9 +5628,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>77</v>
@@ -5615,13 +5651,13 @@
         <v>37</v>
       </c>
       <c r="H81" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="I81" s="6">
-        <v>42482.0</v>
+        <v>42482</v>
       </c>
       <c r="J81" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-10-20:2016-04-22</v>
       </c>
       <c r="K81" s="5" t="s">
@@ -5655,9 +5691,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>77</v>
@@ -5678,11 +5714,11 @@
         <v>56</v>
       </c>
       <c r="H82" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-10-20</v>
       </c>
       <c r="K82" s="5" t="s">
@@ -5716,9 +5752,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>77</v>
@@ -5739,13 +5775,13 @@
         <v>37</v>
       </c>
       <c r="H83" s="6">
-        <v>42728.0</v>
+        <v>42728</v>
       </c>
       <c r="I83" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="J83" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-12-24:2017-02-20</v>
       </c>
       <c r="K83" s="5" t="s">
@@ -5779,9 +5815,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>77</v>
@@ -5802,13 +5838,13 @@
         <v>37</v>
       </c>
       <c r="H84" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I84" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="J84" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20:2017-04-20</v>
       </c>
       <c r="K84" s="5" t="s">
@@ -5842,9 +5878,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>77</v>
@@ -5865,13 +5901,13 @@
         <v>37</v>
       </c>
       <c r="H85" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I85" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J85" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20:2018-02-07</v>
       </c>
       <c r="K85" s="5" t="s">
@@ -5905,9 +5941,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>77</v>
@@ -5928,13 +5964,13 @@
         <v>37</v>
       </c>
       <c r="H86" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I86" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J86" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20:2018-02-07</v>
       </c>
       <c r="K86" s="5" t="s">
@@ -5968,9 +6004,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>77</v>
@@ -5991,13 +6027,13 @@
         <v>37</v>
       </c>
       <c r="H87" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I87" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J87" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20:2018-02-07</v>
       </c>
       <c r="K87" s="5" t="s">
@@ -6031,9 +6067,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>79</v>
@@ -6054,11 +6090,11 @@
         <v>25</v>
       </c>
       <c r="H88" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K88" s="5" t="s">
@@ -6092,9 +6128,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>79</v>
@@ -6115,11 +6151,11 @@
         <v>25</v>
       </c>
       <c r="H89" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K89" s="5" t="s">
@@ -6153,9 +6189,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>79</v>
@@ -6176,11 +6212,11 @@
         <v>25</v>
       </c>
       <c r="H90" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K90" s="5" t="s">
@@ -6214,9 +6250,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>79</v>
@@ -6237,11 +6273,11 @@
         <v>25</v>
       </c>
       <c r="H91" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K91" s="5" t="s">
@@ -6275,9 +6311,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>79</v>
@@ -6298,11 +6334,11 @@
         <v>25</v>
       </c>
       <c r="H92" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K92" s="5" t="s">
@@ -6336,9 +6372,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>79</v>
@@ -6359,11 +6395,11 @@
         <v>25</v>
       </c>
       <c r="H93" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K93" s="5" t="s">
@@ -6397,9 +6433,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>79</v>
@@ -6420,11 +6456,11 @@
         <v>25</v>
       </c>
       <c r="H94" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K94" s="5" t="s">
@@ -6458,9 +6494,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>79</v>
@@ -6481,11 +6517,11 @@
         <v>25</v>
       </c>
       <c r="H95" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K95" s="5" t="s">
@@ -6519,9 +6555,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>79</v>
@@ -6542,11 +6578,11 @@
         <v>25</v>
       </c>
       <c r="H96" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K96" s="5" t="s">
@@ -6580,9 +6616,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>79</v>
@@ -6603,13 +6639,13 @@
         <v>37</v>
       </c>
       <c r="H97" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I97" s="6">
-        <v>41087.0</v>
+        <v>41087</v>
       </c>
       <c r="J97" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011-06-10:2012-06-27</v>
       </c>
       <c r="K97" s="5" t="s">
@@ -6643,9 +6679,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>79</v>
@@ -6666,13 +6702,13 @@
         <v>37</v>
       </c>
       <c r="H98" s="6">
-        <v>41087.0</v>
+        <v>41087</v>
       </c>
       <c r="I98" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="J98" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2012-06-27:2015-10-20</v>
       </c>
       <c r="K98" s="5" t="s">
@@ -6706,9 +6742,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>79</v>
@@ -6729,13 +6765,13 @@
         <v>37</v>
       </c>
       <c r="H99" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="I99" s="6">
-        <v>42475.0</v>
+        <v>42475</v>
       </c>
       <c r="J99" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-10-20:2016-04-15</v>
       </c>
       <c r="K99" s="5" t="s">
@@ -6769,9 +6805,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>79</v>
@@ -6792,13 +6828,13 @@
         <v>37</v>
       </c>
       <c r="H100" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="I100" s="6">
-        <v>42475.0</v>
+        <v>42475</v>
       </c>
       <c r="J100" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-10-20:2016-04-15</v>
       </c>
       <c r="K100" s="5" t="s">
@@ -6832,9 +6868,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>79</v>
@@ -6855,13 +6891,13 @@
         <v>37</v>
       </c>
       <c r="H101" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="I101" s="6">
-        <v>42475.0</v>
+        <v>42475</v>
       </c>
       <c r="J101" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-10-20:2016-04-15</v>
       </c>
       <c r="K101" s="5" t="s">
@@ -6895,9 +6931,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>79</v>
@@ -6918,11 +6954,11 @@
         <v>56</v>
       </c>
       <c r="H102" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20</v>
       </c>
       <c r="K102" s="5" t="s">
@@ -6956,9 +6992,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>79</v>
@@ -6979,13 +7015,13 @@
         <v>37</v>
       </c>
       <c r="H103" s="6">
-        <v>42855.0</v>
+        <v>42855</v>
       </c>
       <c r="I103" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J103" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-30:2018-02-07</v>
       </c>
       <c r="K103" s="5" t="s">
@@ -7019,9 +7055,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>79</v>
@@ -7042,13 +7078,13 @@
         <v>37</v>
       </c>
       <c r="H104" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="I104" s="6">
-        <v>43375.0</v>
+        <v>43375</v>
       </c>
       <c r="J104" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-02-07:2018-10-02</v>
       </c>
       <c r="K104" s="5" t="s">
@@ -7082,9 +7118,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>79</v>
@@ -7105,11 +7141,11 @@
         <v>56</v>
       </c>
       <c r="H105" s="6">
-        <v>43186.0</v>
+        <v>43186</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-03-27</v>
       </c>
       <c r="K105" s="5" t="s">
@@ -7143,9 +7179,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>79</v>
@@ -7166,13 +7202,13 @@
         <v>37</v>
       </c>
       <c r="H106" s="6">
-        <v>43186.0</v>
+        <v>43186</v>
       </c>
       <c r="I106" s="6">
-        <v>43274.0</v>
+        <v>43274</v>
       </c>
       <c r="J106" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-03-27:2018-06-23</v>
       </c>
       <c r="K106" s="5" t="s">
@@ -7206,9 +7242,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>79</v>
@@ -7229,13 +7265,13 @@
         <v>37</v>
       </c>
       <c r="H107" s="6">
-        <v>42544.0</v>
+        <v>42544</v>
       </c>
       <c r="I107" s="6">
-        <v>43375.0</v>
+        <v>43375</v>
       </c>
       <c r="J107" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-06-23:2018-10-02</v>
       </c>
       <c r="K107" s="5" t="s">
@@ -7269,9 +7305,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>79</v>
@@ -7292,11 +7328,11 @@
         <v>56</v>
       </c>
       <c r="H108" s="6">
-        <v>43375.0</v>
+        <v>43375</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-10-02</v>
       </c>
       <c r="K108" s="5" t="s">
@@ -7330,9 +7366,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>80</v>
@@ -7353,11 +7389,11 @@
         <v>25</v>
       </c>
       <c r="H109" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K109" s="5" t="s">
@@ -7391,9 +7427,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>80</v>
@@ -7414,11 +7450,11 @@
         <v>25</v>
       </c>
       <c r="H110" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K110" s="5" t="s">
@@ -7452,9 +7488,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>80</v>
@@ -7475,11 +7511,11 @@
         <v>25</v>
       </c>
       <c r="H111" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K111" s="5" t="s">
@@ -7513,9 +7549,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>80</v>
@@ -7536,11 +7572,11 @@
         <v>25</v>
       </c>
       <c r="H112" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-16</v>
       </c>
       <c r="K112" s="5" t="s">
@@ -7574,9 +7610,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>80</v>
@@ -7597,11 +7633,11 @@
         <v>25</v>
       </c>
       <c r="H113" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-16</v>
       </c>
       <c r="K113" s="5" t="s">
@@ -7635,9 +7671,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>80</v>
@@ -7658,11 +7694,11 @@
         <v>25</v>
       </c>
       <c r="H114" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-16</v>
       </c>
       <c r="K114" s="5" t="s">
@@ -7696,9 +7732,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>80</v>
@@ -7719,13 +7755,13 @@
         <v>37</v>
       </c>
       <c r="H115" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I115" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="J115" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011-06-10:2015-06-30</v>
       </c>
       <c r="K115" s="5" t="s">
@@ -7759,9 +7795,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>80</v>
@@ -7782,13 +7818,13 @@
         <v>37</v>
       </c>
       <c r="H116" s="6">
-        <v>40674.0</v>
+        <v>40674</v>
       </c>
       <c r="I116" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="J116" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011-05-11:2015-06-30</v>
       </c>
       <c r="K116" s="5" t="s">
@@ -7822,9 +7858,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>80</v>
@@ -7845,11 +7881,11 @@
         <v>25</v>
       </c>
       <c r="H117" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K117" s="5" t="s">
@@ -7883,9 +7919,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>80</v>
@@ -7906,11 +7942,11 @@
         <v>25</v>
       </c>
       <c r="H118" s="6">
-        <v>42185.0</v>
+        <v>42185</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2015-06-30</v>
       </c>
       <c r="K118" s="5" t="s">
@@ -7944,9 +7980,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>80</v>
@@ -7967,13 +8003,13 @@
         <v>37</v>
       </c>
       <c r="H119" s="6">
-        <v>42638.0</v>
+        <v>42638</v>
       </c>
       <c r="I119" s="6">
-        <v>42701.0</v>
+        <v>42701</v>
       </c>
       <c r="J119" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-09-25:2016-11-27</v>
       </c>
       <c r="K119" s="5" t="s">
@@ -8007,9 +8043,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>80</v>
@@ -8030,11 +8066,11 @@
         <v>25</v>
       </c>
       <c r="H120" s="6">
-        <v>42659.0</v>
+        <v>42659</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-10-16</v>
       </c>
       <c r="K120" s="5" t="s">
@@ -8068,9 +8104,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>80</v>
@@ -8091,11 +8127,11 @@
         <v>25</v>
       </c>
       <c r="H121" s="6">
-        <v>42659.0</v>
+        <v>42659</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-10-16</v>
       </c>
       <c r="K121" s="5" t="s">
@@ -8129,9 +8165,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>80</v>
@@ -8152,11 +8188,11 @@
         <v>56</v>
       </c>
       <c r="H122" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20</v>
       </c>
       <c r="K122" s="5" t="s">
@@ -8190,9 +8226,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>80</v>
@@ -8213,13 +8249,13 @@
         <v>37</v>
       </c>
       <c r="H123" s="6">
-        <v>42845.0</v>
+        <v>42845</v>
       </c>
       <c r="I123" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J123" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-04-20:2018-02-07</v>
       </c>
       <c r="K123" s="5" t="s">
@@ -8253,9 +8289,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>80</v>
@@ -8276,11 +8312,11 @@
         <v>56</v>
       </c>
       <c r="H124" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-02-07</v>
       </c>
       <c r="K124" s="5" t="s">
@@ -8314,9 +8350,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>85</v>
@@ -8337,11 +8373,11 @@
         <v>25</v>
       </c>
       <c r="H125" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K125" s="5" t="s">
@@ -8375,9 +8411,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>85</v>
@@ -8398,11 +8434,11 @@
         <v>25</v>
       </c>
       <c r="H126" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K126" s="5" t="s">
@@ -8436,9 +8472,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>85</v>
@@ -8459,11 +8495,11 @@
         <v>25</v>
       </c>
       <c r="H127" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-16</v>
       </c>
       <c r="K127" s="5" t="s">
@@ -8497,9 +8533,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>85</v>
@@ -8520,11 +8556,11 @@
         <v>25</v>
       </c>
       <c r="H128" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-16</v>
       </c>
       <c r="K128" s="5" t="s">
@@ -8558,9 +8594,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>85</v>
@@ -8581,11 +8617,11 @@
         <v>25</v>
       </c>
       <c r="H129" s="6">
-        <v>40822.0</v>
+        <v>40822</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-10-06</v>
       </c>
       <c r="K129" s="5" t="s">
@@ -8619,9 +8655,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>85</v>
@@ -8642,13 +8678,13 @@
         <v>37</v>
       </c>
       <c r="H130" s="6">
-        <v>42218.0</v>
+        <v>42218</v>
       </c>
       <c r="I130" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="J130" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-08-02:2015-10-20</v>
       </c>
       <c r="K130" s="5" t="s">
@@ -8682,9 +8718,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>85</v>
@@ -8705,13 +8741,13 @@
         <v>37</v>
       </c>
       <c r="H131" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="I131" s="6">
-        <v>42458.0</v>
+        <v>42458</v>
       </c>
       <c r="J131" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-10-20:2016-03-29</v>
       </c>
       <c r="K131" s="5" t="s">
@@ -8745,9 +8781,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>85</v>
@@ -8768,13 +8804,13 @@
         <v>37</v>
       </c>
       <c r="H132" s="6">
-        <v>42458.0</v>
+        <v>42458</v>
       </c>
       <c r="I132" s="6">
-        <v>42512.0</v>
+        <v>42512</v>
       </c>
       <c r="J132" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-03-29:2016-05-22</v>
       </c>
       <c r="K132" s="5" t="s">
@@ -8808,9 +8844,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>85</v>
@@ -8831,11 +8867,11 @@
         <v>56</v>
       </c>
       <c r="H133" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20</v>
       </c>
       <c r="K133" s="5" t="s">
@@ -8869,9 +8905,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>85</v>
@@ -8892,13 +8928,13 @@
         <v>37</v>
       </c>
       <c r="H134" s="6">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="I134" s="6">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="J134" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-20:2018-01-29</v>
       </c>
       <c r="K134" s="5" t="s">
@@ -8932,9 +8968,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>85</v>
@@ -8955,11 +8991,11 @@
         <v>56</v>
       </c>
       <c r="H135" s="6">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-01-29</v>
       </c>
       <c r="K135" s="5" t="s">
@@ -8993,9 +9029,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>85</v>
@@ -9016,13 +9052,13 @@
         <v>37</v>
       </c>
       <c r="H136" s="6">
-        <v>43274.0</v>
+        <v>43274</v>
       </c>
       <c r="I136" s="6">
-        <v>43568.0</v>
+        <v>43568</v>
       </c>
       <c r="J136" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-06-23:2019-04-13</v>
       </c>
       <c r="K136" s="5" t="s">
@@ -9056,9 +9092,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>87</v>
@@ -9079,11 +9115,11 @@
         <v>25</v>
       </c>
       <c r="H137" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K137" s="5" t="s">
@@ -9117,9 +9153,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>87</v>
@@ -9140,11 +9176,11 @@
         <v>25</v>
       </c>
       <c r="H138" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K138" s="5" t="s">
@@ -9178,9 +9214,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>87</v>
@@ -9201,11 +9237,11 @@
         <v>25</v>
       </c>
       <c r="H139" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K139" s="5" t="s">
@@ -9239,9 +9275,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>87</v>
@@ -9262,11 +9298,11 @@
         <v>25</v>
       </c>
       <c r="H140" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K140" s="5" t="s">
@@ -9300,9 +9336,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>87</v>
@@ -9323,11 +9359,11 @@
         <v>25</v>
       </c>
       <c r="H141" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-09-22</v>
       </c>
       <c r="K141" s="5" t="s">
@@ -9361,9 +9397,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>87</v>
@@ -9384,13 +9420,13 @@
         <v>37</v>
       </c>
       <c r="H142" s="6">
-        <v>43182.0</v>
+        <v>43182</v>
       </c>
       <c r="I142" s="6">
-        <v>43567.0</v>
+        <v>43567</v>
       </c>
       <c r="J142" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-03-23:2019-04-12</v>
       </c>
       <c r="K142" s="5" t="s">
@@ -9424,9 +9460,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>88</v>
@@ -9447,11 +9483,11 @@
         <v>25</v>
       </c>
       <c r="H143" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K143" s="5" t="s">
@@ -9485,9 +9521,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>88</v>
@@ -9508,11 +9544,11 @@
         <v>25</v>
       </c>
       <c r="H144" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K144" s="5" t="s">
@@ -9546,9 +9582,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>88</v>
@@ -9569,11 +9605,11 @@
         <v>25</v>
       </c>
       <c r="H145" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K145" s="5" t="s">
@@ -9607,9 +9643,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>88</v>
@@ -9630,11 +9666,11 @@
         <v>25</v>
       </c>
       <c r="H146" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K146" s="5" t="s">
@@ -9668,9 +9704,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>88</v>
@@ -9691,11 +9727,11 @@
         <v>25</v>
       </c>
       <c r="H147" s="6">
-        <v>40704.0</v>
+        <v>40704</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-06-10</v>
       </c>
       <c r="K147" s="5" t="s">
@@ -9729,9 +9765,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>88</v>
@@ -9752,11 +9788,11 @@
         <v>25</v>
       </c>
       <c r="H148" s="6">
-        <v>41087.0</v>
+        <v>41087</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2012-06-27</v>
       </c>
       <c r="K148" s="5" t="s">
@@ -9790,9 +9826,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>88</v>
@@ -9813,13 +9849,13 @@
         <v>37</v>
       </c>
       <c r="H149" s="6">
-        <v>41087.0</v>
+        <v>41087</v>
       </c>
       <c r="I149" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="J149" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2012-06-27:2015-10-20</v>
       </c>
       <c r="K149" s="5" t="s">
@@ -9853,9 +9889,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>88</v>
@@ -9876,13 +9912,13 @@
         <v>37</v>
       </c>
       <c r="H150" s="6">
-        <v>41087.0</v>
+        <v>41087</v>
       </c>
       <c r="I150" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="J150" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2012-06-27:2015-10-20</v>
       </c>
       <c r="K150" s="5" t="s">
@@ -9916,9 +9952,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>88</v>
@@ -9939,13 +9975,13 @@
         <v>37</v>
       </c>
       <c r="H151" s="6">
-        <v>42799.0</v>
+        <v>42799</v>
       </c>
       <c r="I151" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="J151" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-03-05:2018-02-07</v>
       </c>
       <c r="K151" s="5" t="s">
@@ -9979,9 +10015,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>88</v>
@@ -10002,11 +10038,11 @@
         <v>56</v>
       </c>
       <c r="H152" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-02-07</v>
       </c>
       <c r="K152" s="5" t="s">
@@ -10040,9 +10076,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>88</v>
@@ -10063,13 +10099,13 @@
         <v>37</v>
       </c>
       <c r="H153" s="6">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="I153" s="6">
-        <v>43375.0</v>
+        <v>43375</v>
       </c>
       <c r="J153" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-02-07:2018-10-02</v>
       </c>
       <c r="K153" s="5" t="s">
@@ -10103,9 +10139,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>89</v>
@@ -10126,11 +10162,11 @@
         <v>25</v>
       </c>
       <c r="H154" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K154" s="5" t="s">
@@ -10164,9 +10200,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>89</v>
@@ -10187,13 +10223,13 @@
         <v>37</v>
       </c>
       <c r="H155" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I155" s="6">
-        <v>41087.0</v>
+        <v>41087</v>
       </c>
       <c r="J155" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-09-22:2012-06-27</v>
       </c>
       <c r="K155" s="5" t="s">
@@ -10227,9 +10263,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>89</v>
@@ -10250,11 +10286,11 @@
         <v>25</v>
       </c>
       <c r="H156" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-09-22</v>
       </c>
       <c r="K156" s="5" t="s">
@@ -10288,9 +10324,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>89</v>
@@ -10311,11 +10347,11 @@
         <v>25</v>
       </c>
       <c r="H157" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-09-22</v>
       </c>
       <c r="K157" s="5" t="s">
@@ -10349,9 +10385,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>89</v>
@@ -10372,11 +10408,11 @@
         <v>25</v>
       </c>
       <c r="H158" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-09-22</v>
       </c>
       <c r="K158" s="5" t="s">
@@ -10410,9 +10446,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>90</v>
@@ -10433,11 +10469,11 @@
         <v>25</v>
       </c>
       <c r="H159" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K159" s="5" t="s">
@@ -10471,9 +10507,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>90</v>
@@ -10494,11 +10530,11 @@
         <v>25</v>
       </c>
       <c r="H160" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K160" s="5" t="s">
@@ -10532,9 +10568,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>90</v>
@@ -10555,13 +10591,13 @@
         <v>37</v>
       </c>
       <c r="H161" s="6">
-        <v>38107.0</v>
+        <v>38107</v>
       </c>
       <c r="I161" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="J161" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2004-04-30:2009-09-22</v>
       </c>
       <c r="K161" s="5" t="s">
@@ -10595,9 +10631,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>90</v>
@@ -10618,11 +10654,11 @@
         <v>25</v>
       </c>
       <c r="H162" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-09-22</v>
       </c>
       <c r="K162" s="5" t="s">
@@ -10656,9 +10692,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>90</v>
@@ -10679,13 +10715,13 @@
         <v>37</v>
       </c>
       <c r="H163" s="6">
-        <v>41678.0</v>
+        <v>41678</v>
       </c>
       <c r="I163" s="6">
-        <v>41881.0</v>
+        <v>41881</v>
       </c>
       <c r="J163" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014-02-08:2014-08-30</v>
       </c>
       <c r="K163" s="5" t="s">
@@ -10719,9 +10755,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>90</v>
@@ -10742,13 +10778,13 @@
         <v>37</v>
       </c>
       <c r="H164" s="6">
-        <v>41881.0</v>
+        <v>41881</v>
       </c>
       <c r="I164" s="6">
-        <v>42346.0</v>
+        <v>42346</v>
       </c>
       <c r="J164" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014-08-30:2015-12-08</v>
       </c>
       <c r="K164" s="5" t="s">
@@ -10782,9 +10818,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>91</v>
@@ -10805,11 +10841,11 @@
         <v>25</v>
       </c>
       <c r="H165" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K165" s="5" t="s">
@@ -10843,9 +10879,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>91</v>
@@ -10866,11 +10902,11 @@
         <v>25</v>
       </c>
       <c r="H166" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K166" s="5" t="s">
@@ -10904,9 +10940,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>91</v>
@@ -10927,11 +10963,11 @@
         <v>25</v>
       </c>
       <c r="H167" s="6">
-        <v>40109.0</v>
+        <v>40109</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-10-23</v>
       </c>
       <c r="K167" s="5" t="s">
@@ -10965,9 +11001,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>91</v>
@@ -10988,11 +11024,11 @@
         <v>25</v>
       </c>
       <c r="H168" s="6">
-        <v>40109.0</v>
+        <v>40109</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-10-23</v>
       </c>
       <c r="K168" s="5" t="s">
@@ -11026,9 +11062,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>91</v>
@@ -11049,13 +11085,13 @@
         <v>37</v>
       </c>
       <c r="H169" s="6">
-        <v>40109.0</v>
+        <v>40109</v>
       </c>
       <c r="I169" s="6">
-        <v>42547.0</v>
+        <v>42547</v>
       </c>
       <c r="J169" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-10-23:2016-06-26</v>
       </c>
       <c r="K169" s="5" t="s">
@@ -11089,9 +11125,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>91</v>
@@ -11112,13 +11148,13 @@
         <v>37</v>
       </c>
       <c r="H170" s="6">
-        <v>40109.0</v>
+        <v>40109</v>
       </c>
       <c r="I170" s="6">
-        <v>42547.0</v>
+        <v>42547</v>
       </c>
       <c r="J170" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-10-23:2016-06-26</v>
       </c>
       <c r="K170" s="5" t="s">
@@ -11152,9 +11188,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>91</v>
@@ -11175,13 +11211,13 @@
         <v>37</v>
       </c>
       <c r="H171" s="6">
-        <v>40109.0</v>
+        <v>40109</v>
       </c>
       <c r="I171" s="6">
-        <v>42547.0</v>
+        <v>42547</v>
       </c>
       <c r="J171" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-10-23:2016-06-26</v>
       </c>
       <c r="K171" s="5" t="s">
@@ -11215,9 +11251,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>91</v>
@@ -11238,13 +11274,13 @@
         <v>37</v>
       </c>
       <c r="H172" s="6">
-        <v>40109.0</v>
+        <v>40109</v>
       </c>
       <c r="I172" s="6">
-        <v>42547.0</v>
+        <v>42547</v>
       </c>
       <c r="J172" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-10-23:2016-06-26</v>
       </c>
       <c r="K172" s="5" t="s">
@@ -11278,9 +11314,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>91</v>
@@ -11301,11 +11337,11 @@
         <v>25</v>
       </c>
       <c r="H173" s="6">
-        <v>42547.0</v>
+        <v>42547</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-06-26</v>
       </c>
       <c r="K173" s="5" t="s">
@@ -11339,9 +11375,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>91</v>
@@ -11362,13 +11398,13 @@
         <v>37</v>
       </c>
       <c r="H174" s="6">
-        <v>42547.0</v>
+        <v>42547</v>
       </c>
       <c r="I174" s="6">
-        <v>42823.0</v>
+        <v>42823</v>
       </c>
       <c r="J174" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-06-26:2017-03-29</v>
       </c>
       <c r="K174" s="5" t="s">
@@ -11402,9 +11438,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>91</v>
@@ -11425,11 +11461,11 @@
         <v>56</v>
       </c>
       <c r="H175" s="6">
-        <v>43498.0</v>
+        <v>43498</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2019-02-02</v>
       </c>
       <c r="K175" s="5" t="s">
@@ -11463,9 +11499,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>92</v>
@@ -11486,11 +11522,11 @@
         <v>25</v>
       </c>
       <c r="H176" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K176" s="5" t="s">
@@ -11524,9 +11560,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>92</v>
@@ -11547,11 +11583,11 @@
         <v>25</v>
       </c>
       <c r="H177" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K177" s="5" t="s">
@@ -11585,9 +11621,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>92</v>
@@ -11608,11 +11644,11 @@
         <v>25</v>
       </c>
       <c r="H178" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K178" s="5" t="s">
@@ -11646,9 +11682,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>92</v>
@@ -11669,11 +11705,11 @@
         <v>25</v>
       </c>
       <c r="H179" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K179" s="5" t="s">
@@ -11707,9 +11743,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>92</v>
@@ -11730,13 +11766,13 @@
         <v>37</v>
       </c>
       <c r="H180" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I180" s="6">
-        <v>41567.0</v>
+        <v>41567</v>
       </c>
       <c r="J180" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2004-12-31:2013-10-20</v>
       </c>
       <c r="K180" s="5" t="s">
@@ -11770,9 +11806,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>92</v>
@@ -11793,13 +11829,13 @@
         <v>37</v>
       </c>
       <c r="H181" s="6">
-        <v>41567.0</v>
+        <v>41567</v>
       </c>
       <c r="I181" s="6">
-        <v>42408.0</v>
+        <v>42408</v>
       </c>
       <c r="J181" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2013-10-20:2016-02-08</v>
       </c>
       <c r="K181" s="5" t="s">
@@ -11833,9 +11869,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>92</v>
@@ -11856,11 +11892,11 @@
         <v>25</v>
       </c>
       <c r="H182" s="6">
-        <v>42681.0</v>
+        <v>42681</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-11-07</v>
       </c>
       <c r="K182" s="5" t="s">
@@ -11894,9 +11930,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>94</v>
@@ -11917,13 +11953,13 @@
         <v>37</v>
       </c>
       <c r="H183" s="6">
-        <v>39083.0</v>
+        <v>39083</v>
       </c>
       <c r="I183" s="6">
-        <v>40096.0</v>
+        <v>40096</v>
       </c>
       <c r="J183" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2007-01-01:2009-10-10</v>
       </c>
       <c r="K183" s="5" t="s">
@@ -11957,9 +11993,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>94</v>
@@ -11980,11 +12016,11 @@
         <v>25</v>
       </c>
       <c r="H184" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-09-22</v>
       </c>
       <c r="K184" s="5" t="s">
@@ -12018,9 +12054,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>94</v>
@@ -12041,13 +12077,13 @@
         <v>37</v>
       </c>
       <c r="H185" s="6">
-        <v>40078.0</v>
+        <v>40078</v>
       </c>
       <c r="I185" s="6">
-        <v>41678.0</v>
+        <v>41678</v>
       </c>
       <c r="J185" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009-09-22:2014-02-08</v>
       </c>
       <c r="K185" s="5" t="s">
@@ -12081,9 +12117,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>94</v>
@@ -12104,13 +12140,13 @@
         <v>37</v>
       </c>
       <c r="H186" s="6">
-        <v>42613.0</v>
+        <v>42613</v>
       </c>
       <c r="I186" s="6">
-        <v>42866.0</v>
+        <v>42866</v>
       </c>
       <c r="J186" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-08-31:2017-05-11</v>
       </c>
       <c r="K186" s="5" t="s">
@@ -12144,9 +12180,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>94</v>
@@ -12167,13 +12203,13 @@
         <v>37</v>
       </c>
       <c r="H187" s="6">
-        <v>42866.0</v>
+        <v>42866</v>
       </c>
       <c r="I187" s="6">
-        <v>43182.0</v>
+        <v>43182</v>
       </c>
       <c r="J187" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-05-11:2018-03-23</v>
       </c>
       <c r="K187" s="5" t="s">
@@ -12207,9 +12243,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>94</v>
@@ -12230,13 +12266,13 @@
         <v>37</v>
       </c>
       <c r="H188" s="6">
-        <v>42866.0</v>
+        <v>42866</v>
       </c>
       <c r="I188" s="6">
-        <v>43335.0</v>
+        <v>43335</v>
       </c>
       <c r="J188" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-05-11:2018-08-23</v>
       </c>
       <c r="K188" s="5" t="s">
@@ -12270,9 +12306,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>94</v>
@@ -12293,13 +12329,13 @@
         <v>37</v>
       </c>
       <c r="H189" s="6">
-        <v>43256.0</v>
+        <v>43256</v>
       </c>
       <c r="I189" s="6">
-        <v>43304.0</v>
+        <v>43304</v>
       </c>
       <c r="J189" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-06-05:2018-07-23</v>
       </c>
       <c r="K189" s="5" t="s">
@@ -12333,9 +12369,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>94</v>
@@ -12356,13 +12392,13 @@
         <v>37</v>
       </c>
       <c r="H190" s="6">
-        <v>43304.0</v>
+        <v>43304</v>
       </c>
       <c r="I190" s="6">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="J190" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-07-23:2018-09-01</v>
       </c>
       <c r="K190" s="5" t="s">
@@ -12396,9 +12432,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>94</v>
@@ -12419,13 +12455,13 @@
         <v>37</v>
       </c>
       <c r="H191" s="6">
-        <v>43256.0</v>
+        <v>43256</v>
       </c>
       <c r="I191" s="6">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="J191" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-06-05:2018-09-01</v>
       </c>
       <c r="K191" s="5" t="s">
@@ -12459,9 +12495,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>94</v>
@@ -12482,13 +12518,13 @@
         <v>37</v>
       </c>
       <c r="H192" s="6">
-        <v>43256.0</v>
+        <v>43256</v>
       </c>
       <c r="I192" s="6">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="J192" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-06-05:2018-09-01</v>
       </c>
       <c r="K192" s="5" t="s">
@@ -12522,9 +12558,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>94</v>
@@ -12545,13 +12581,13 @@
         <v>37</v>
       </c>
       <c r="H193" s="6">
-        <v>43256.0</v>
+        <v>43256</v>
       </c>
       <c r="I193" s="6">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="J193" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-06-05:2018-09-01</v>
       </c>
       <c r="K193" s="5" t="s">
@@ -12585,9 +12621,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>94</v>
@@ -12608,13 +12644,13 @@
         <v>37</v>
       </c>
       <c r="H194" s="6">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="I194" s="6">
-        <v>43498.0</v>
+        <v>43498</v>
       </c>
       <c r="J194" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-09-01:2019-02-02</v>
       </c>
       <c r="K194" s="5" t="s">
@@ -12648,9 +12684,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>94</v>
@@ -12671,13 +12707,13 @@
         <v>37</v>
       </c>
       <c r="H195" s="6">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="I195" s="6">
-        <v>43498.0</v>
+        <v>43498</v>
       </c>
       <c r="J195" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-09-01:2019-02-02</v>
       </c>
       <c r="K195" s="5" t="s">
@@ -12711,9 +12747,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>96</v>
@@ -12734,11 +12770,11 @@
         <v>25</v>
       </c>
       <c r="H196" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K196" s="5" t="s">
@@ -12772,9 +12808,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>96</v>
@@ -12795,11 +12831,11 @@
         <v>25</v>
       </c>
       <c r="H197" s="6">
-        <v>38353.0</v>
+        <v>38353</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2005-01-01</v>
       </c>
       <c r="K197" s="5" t="s">
@@ -12833,9 +12869,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>96</v>
@@ -12856,11 +12892,11 @@
         <v>25</v>
       </c>
       <c r="H198" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K198" s="5" t="s">
@@ -12894,9 +12930,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>96</v>
@@ -12917,11 +12953,11 @@
         <v>25</v>
       </c>
       <c r="H199" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K199" s="5" t="s">
@@ -12955,9 +12991,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>96</v>
@@ -12978,11 +13014,11 @@
         <v>25</v>
       </c>
       <c r="H200" s="6">
-        <v>40777.0</v>
+        <v>40777</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2011-08-22</v>
       </c>
       <c r="K200" s="5" t="s">
@@ -13016,9 +13052,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>96</v>
@@ -13039,13 +13075,13 @@
         <v>37</v>
       </c>
       <c r="H201" s="6">
-        <v>40796.0</v>
+        <v>40796</v>
       </c>
       <c r="I201" s="6">
-        <v>41732.0</v>
+        <v>41732</v>
       </c>
       <c r="J201" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011-09-10:2014-04-03</v>
       </c>
       <c r="K201" s="5" t="s">
@@ -13079,9 +13115,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>96</v>
@@ -13102,13 +13138,13 @@
         <v>37</v>
       </c>
       <c r="H202" s="6">
-        <v>41790.0</v>
+        <v>41790</v>
       </c>
       <c r="I202" s="6">
-        <v>42232.0</v>
+        <v>42232</v>
       </c>
       <c r="J202" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014-05-31:2015-08-16</v>
       </c>
       <c r="K202" s="5" t="s">
@@ -13142,9 +13178,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>96</v>
@@ -13165,13 +13201,13 @@
         <v>37</v>
       </c>
       <c r="H203" s="6">
-        <v>42787.0</v>
+        <v>42787</v>
       </c>
       <c r="I203" s="6">
-        <v>42957.0</v>
+        <v>42957</v>
       </c>
       <c r="J203" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-02-21:2017-08-10</v>
       </c>
       <c r="K203" s="5" t="s">
@@ -13205,9 +13241,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>96</v>
@@ -13228,13 +13264,13 @@
         <v>37</v>
       </c>
       <c r="H204" s="6">
-        <v>43279.0</v>
+        <v>43279</v>
       </c>
       <c r="I204" s="6">
-        <v>43405.0</v>
+        <v>43405</v>
       </c>
       <c r="J204" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018-06-28:2018-11-01</v>
       </c>
       <c r="K204" s="5" t="s">
@@ -13268,9 +13304,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>97</v>
@@ -13291,11 +13327,11 @@
         <v>25</v>
       </c>
       <c r="H205" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K205" s="5" t="s">
@@ -13329,9 +13365,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>97</v>
@@ -13352,11 +13388,11 @@
         <v>25</v>
       </c>
       <c r="H206" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K206" s="5" t="s">
@@ -13390,9 +13426,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>97</v>
@@ -13413,11 +13449,11 @@
         <v>25</v>
       </c>
       <c r="H207" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K207" s="5" t="s">
@@ -13451,9 +13487,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>97</v>
@@ -13474,11 +13510,11 @@
         <v>25</v>
       </c>
       <c r="H208" s="6">
-        <v>39957.0</v>
+        <v>39957</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-24</v>
       </c>
       <c r="K208" s="5" t="s">
@@ -13512,9 +13548,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>97</v>
@@ -13535,11 +13571,11 @@
         <v>25</v>
       </c>
       <c r="H209" s="6">
-        <v>39957.0</v>
+        <v>39957</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-24</v>
       </c>
       <c r="K209" s="5" t="s">
@@ -13573,9 +13609,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>97</v>
@@ -13596,13 +13632,13 @@
         <v>37</v>
       </c>
       <c r="H210" s="6">
-        <v>40388.0</v>
+        <v>40388</v>
       </c>
       <c r="I210" s="6">
-        <v>41567.0</v>
+        <v>41567</v>
       </c>
       <c r="J210" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2010-07-29:2013-10-20</v>
       </c>
       <c r="K210" s="5" t="s">
@@ -13636,9 +13672,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>97</v>
@@ -13659,11 +13695,11 @@
         <v>56</v>
       </c>
       <c r="H211" s="6">
-        <v>42799.0</v>
+        <v>42799</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017-03-05</v>
       </c>
       <c r="K211" s="5" t="s">
@@ -13697,9 +13733,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>98</v>
@@ -13720,11 +13756,11 @@
         <v>25</v>
       </c>
       <c r="H212" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K212" s="5" t="s">
@@ -13758,9 +13794,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>98</v>
@@ -13781,11 +13817,11 @@
         <v>25</v>
       </c>
       <c r="H213" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K213" s="5" t="s">
@@ -13819,9 +13855,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>98</v>
@@ -13842,11 +13878,11 @@
         <v>25</v>
       </c>
       <c r="H214" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K214" s="5" t="s">
@@ -13880,9 +13916,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>98</v>
@@ -13903,11 +13939,11 @@
         <v>25</v>
       </c>
       <c r="H215" s="6">
-        <v>38352.0</v>
+        <v>38352</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2004-12-31</v>
       </c>
       <c r="K215" s="5" t="s">
@@ -13941,9 +13977,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>98</v>
@@ -13964,11 +14000,11 @@
         <v>25</v>
       </c>
       <c r="H216" s="6">
-        <v>39949.0</v>
+        <v>39949</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2009-05-16</v>
       </c>
       <c r="K216" s="5" t="s">
@@ -14002,9 +14038,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>98</v>
@@ -14025,13 +14061,13 @@
         <v>37</v>
       </c>
       <c r="H217" s="6">
-        <v>42120.0</v>
+        <v>42120</v>
       </c>
       <c r="I217" s="6">
-        <v>42297.0</v>
+        <v>42297</v>
       </c>
       <c r="J217" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015-04-26:2015-10-20</v>
       </c>
       <c r="K217" s="5" t="s">
@@ -14065,9 +14101,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>98</v>
@@ -14088,13 +14124,13 @@
         <v>37</v>
       </c>
       <c r="H218" s="6">
-        <v>42638.0</v>
+        <v>42638</v>
       </c>
       <c r="I218" s="6">
-        <v>42661.0</v>
+        <v>42661</v>
       </c>
       <c r="J218" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016-09-25:2016-10-18</v>
       </c>
       <c r="K218" s="5" t="s">
@@ -14128,9 +14164,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>98</v>
@@ -14151,11 +14187,11 @@
         <v>25</v>
       </c>
       <c r="H219" s="6">
-        <v>42665.0</v>
+        <v>42665</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>..2016-10-22</v>
       </c>
       <c r="K219" s="5" t="s">
@@ -14189,2350 +14225,2350 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J220" s="9"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J221" s="9"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J222" s="9"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J223" s="9"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J224" s="9"/>
     </row>
-    <row r="225">
+    <row r="225" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J225" s="9"/>
     </row>
-    <row r="226">
+    <row r="226" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J226" s="9"/>
     </row>
-    <row r="227">
+    <row r="227" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J227" s="9"/>
     </row>
-    <row r="228">
+    <row r="228" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J228" s="9"/>
     </row>
-    <row r="229">
+    <row r="229" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J229" s="9"/>
     </row>
-    <row r="230">
+    <row r="230" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J230" s="9"/>
     </row>
-    <row r="231">
+    <row r="231" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J231" s="9"/>
     </row>
-    <row r="232">
+    <row r="232" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J232" s="9"/>
     </row>
-    <row r="233">
+    <row r="233" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J236" s="9"/>
     </row>
-    <row r="237">
+    <row r="237" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J237" s="9"/>
     </row>
-    <row r="238">
+    <row r="238" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J238" s="9"/>
     </row>
-    <row r="239">
+    <row r="239" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J239" s="9"/>
     </row>
-    <row r="240">
+    <row r="240" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J240" s="9"/>
     </row>
-    <row r="241">
+    <row r="241" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J241" s="9"/>
     </row>
-    <row r="242">
+    <row r="242" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J257" s="9"/>
     </row>
-    <row r="258">
+    <row r="258" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J258" s="9"/>
     </row>
-    <row r="259">
+    <row r="259" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J280" s="9"/>
     </row>
-    <row r="281">
+    <row r="281" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J281" s="9"/>
     </row>
-    <row r="282">
+    <row r="282" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J282" s="9"/>
     </row>
-    <row r="283">
+    <row r="283" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J286" s="9"/>
     </row>
-    <row r="287">
+    <row r="287" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J287" s="9"/>
     </row>
-    <row r="288">
+    <row r="288" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J288" s="9"/>
     </row>
-    <row r="289">
+    <row r="289" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J289" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J290" s="9"/>
     </row>
-    <row r="291">
+    <row r="291" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J295" s="9"/>
     </row>
-    <row r="296">
+    <row r="296" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J302" s="9"/>
     </row>
-    <row r="303">
+    <row r="303" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J303" s="9"/>
     </row>
-    <row r="304">
+    <row r="304" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J304" s="9"/>
     </row>
-    <row r="305">
+    <row r="305" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J305" s="9"/>
     </row>
-    <row r="306">
+    <row r="306" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J306" s="9"/>
     </row>
-    <row r="307">
+    <row r="307" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J307" s="9"/>
     </row>
-    <row r="308">
+    <row r="308" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J308" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J310" s="9"/>
     </row>
-    <row r="311">
+    <row r="311" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J311" s="9"/>
     </row>
-    <row r="312">
+    <row r="312" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J312" s="9"/>
     </row>
-    <row r="313">
+    <row r="313" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J313" s="9"/>
     </row>
-    <row r="314">
+    <row r="314" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J314" s="9"/>
     </row>
-    <row r="315">
+    <row r="315" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J315" s="9"/>
     </row>
-    <row r="316">
+    <row r="316" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J316" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J317" s="9"/>
     </row>
-    <row r="318">
+    <row r="318" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J318" s="9"/>
     </row>
-    <row r="319">
+    <row r="319" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J319" s="9"/>
     </row>
-    <row r="320">
+    <row r="320" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J320" s="9"/>
     </row>
-    <row r="321">
+    <row r="321" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J321" s="9"/>
     </row>
-    <row r="322">
+    <row r="322" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J322" s="9"/>
     </row>
-    <row r="323">
+    <row r="323" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J323" s="9"/>
     </row>
-    <row r="324">
+    <row r="324" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J324" s="9"/>
     </row>
-    <row r="325">
+    <row r="325" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J325" s="9"/>
     </row>
-    <row r="326">
+    <row r="326" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J326" s="9"/>
     </row>
-    <row r="327">
+    <row r="327" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J327" s="9"/>
     </row>
-    <row r="328">
+    <row r="328" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J328" s="9"/>
     </row>
-    <row r="329">
+    <row r="329" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J329" s="9"/>
     </row>
-    <row r="330">
+    <row r="330" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J330" s="9"/>
     </row>
-    <row r="331">
+    <row r="331" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J331" s="9"/>
     </row>
-    <row r="332">
+    <row r="332" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J332" s="9"/>
     </row>
-    <row r="333">
+    <row r="333" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J333" s="9"/>
     </row>
-    <row r="334">
+    <row r="334" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J334" s="9"/>
     </row>
-    <row r="335">
+    <row r="335" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J335" s="9"/>
     </row>
-    <row r="336">
+    <row r="336" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J336" s="9"/>
     </row>
-    <row r="337">
+    <row r="337" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J337" s="9"/>
     </row>
-    <row r="338">
+    <row r="338" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J338" s="9"/>
     </row>
-    <row r="339">
+    <row r="339" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J339" s="9"/>
     </row>
-    <row r="340">
+    <row r="340" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J340" s="9"/>
     </row>
-    <row r="341">
+    <row r="341" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J341" s="9"/>
     </row>
-    <row r="342">
+    <row r="342" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J342" s="9"/>
     </row>
-    <row r="343">
+    <row r="343" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J343" s="9"/>
     </row>
-    <row r="344">
+    <row r="344" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J344" s="9"/>
     </row>
-    <row r="345">
+    <row r="345" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J345" s="9"/>
     </row>
-    <row r="346">
+    <row r="346" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J346" s="9"/>
     </row>
-    <row r="347">
+    <row r="347" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J347" s="9"/>
     </row>
-    <row r="348">
+    <row r="348" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J348" s="9"/>
     </row>
-    <row r="349">
+    <row r="349" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J349" s="9"/>
     </row>
-    <row r="350">
+    <row r="350" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J350" s="9"/>
     </row>
-    <row r="351">
+    <row r="351" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J351" s="9"/>
     </row>
-    <row r="352">
+    <row r="352" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J352" s="9"/>
     </row>
-    <row r="353">
+    <row r="353" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J353" s="9"/>
     </row>
-    <row r="354">
+    <row r="354" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J354" s="9"/>
     </row>
-    <row r="355">
+    <row r="355" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J355" s="9"/>
     </row>
-    <row r="356">
+    <row r="356" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J356" s="9"/>
     </row>
-    <row r="357">
+    <row r="357" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J357" s="9"/>
     </row>
-    <row r="358">
+    <row r="358" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J358" s="9"/>
     </row>
-    <row r="359">
+    <row r="359" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J359" s="9"/>
     </row>
-    <row r="360">
+    <row r="360" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J360" s="9"/>
     </row>
-    <row r="361">
+    <row r="361" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J361" s="9"/>
     </row>
-    <row r="362">
+    <row r="362" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J362" s="9"/>
     </row>
-    <row r="363">
+    <row r="363" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J363" s="9"/>
     </row>
-    <row r="364">
+    <row r="364" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J364" s="9"/>
     </row>
-    <row r="365">
+    <row r="365" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J365" s="9"/>
     </row>
-    <row r="366">
+    <row r="366" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J366" s="9"/>
     </row>
-    <row r="367">
+    <row r="367" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J367" s="9"/>
     </row>
-    <row r="368">
+    <row r="368" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J368" s="9"/>
     </row>
-    <row r="369">
+    <row r="369" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J369" s="9"/>
     </row>
-    <row r="370">
+    <row r="370" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J370" s="9"/>
     </row>
-    <row r="371">
+    <row r="371" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J371" s="9"/>
     </row>
-    <row r="372">
+    <row r="372" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J372" s="9"/>
     </row>
-    <row r="373">
+    <row r="373" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J373" s="9"/>
     </row>
-    <row r="374">
+    <row r="374" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J374" s="9"/>
     </row>
-    <row r="375">
+    <row r="375" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J375" s="9"/>
     </row>
-    <row r="376">
+    <row r="376" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J376" s="9"/>
     </row>
-    <row r="377">
+    <row r="377" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J377" s="9"/>
     </row>
-    <row r="378">
+    <row r="378" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J378" s="9"/>
     </row>
-    <row r="379">
+    <row r="379" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J379" s="9"/>
     </row>
-    <row r="380">
+    <row r="380" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J380" s="9"/>
     </row>
-    <row r="381">
+    <row r="381" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J381" s="9"/>
     </row>
-    <row r="382">
+    <row r="382" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J382" s="9"/>
     </row>
-    <row r="383">
+    <row r="383" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J383" s="9"/>
     </row>
-    <row r="384">
+    <row r="384" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J384" s="9"/>
     </row>
-    <row r="385">
+    <row r="385" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J385" s="9"/>
     </row>
-    <row r="386">
+    <row r="386" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J386" s="9"/>
     </row>
-    <row r="387">
+    <row r="387" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J387" s="9"/>
     </row>
-    <row r="388">
+    <row r="388" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J388" s="9"/>
     </row>
-    <row r="389">
+    <row r="389" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J389" s="9"/>
     </row>
-    <row r="390">
+    <row r="390" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J390" s="9"/>
     </row>
-    <row r="391">
+    <row r="391" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J391" s="9"/>
     </row>
-    <row r="392">
+    <row r="392" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J392" s="9"/>
     </row>
-    <row r="393">
+    <row r="393" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J393" s="9"/>
     </row>
-    <row r="394">
+    <row r="394" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J394" s="9"/>
     </row>
-    <row r="395">
+    <row r="395" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J395" s="9"/>
     </row>
-    <row r="396">
+    <row r="396" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J396" s="9"/>
     </row>
-    <row r="397">
+    <row r="397" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J397" s="9"/>
     </row>
-    <row r="398">
+    <row r="398" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J398" s="9"/>
     </row>
-    <row r="399">
+    <row r="399" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J399" s="9"/>
     </row>
-    <row r="400">
+    <row r="400" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J400" s="9"/>
     </row>
-    <row r="401">
+    <row r="401" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J401" s="9"/>
     </row>
-    <row r="402">
+    <row r="402" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J402" s="9"/>
     </row>
-    <row r="403">
+    <row r="403" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J403" s="9"/>
     </row>
-    <row r="404">
+    <row r="404" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J404" s="9"/>
     </row>
-    <row r="405">
+    <row r="405" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J405" s="9"/>
     </row>
-    <row r="406">
+    <row r="406" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J406" s="9"/>
     </row>
-    <row r="407">
+    <row r="407" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J407" s="9"/>
     </row>
-    <row r="408">
+    <row r="408" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J408" s="9"/>
     </row>
-    <row r="409">
+    <row r="409" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J409" s="9"/>
     </row>
-    <row r="410">
+    <row r="410" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J410" s="9"/>
     </row>
-    <row r="411">
+    <row r="411" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J411" s="9"/>
     </row>
-    <row r="412">
+    <row r="412" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J412" s="9"/>
     </row>
-    <row r="413">
+    <row r="413" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J413" s="9"/>
     </row>
-    <row r="414">
+    <row r="414" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J414" s="9"/>
     </row>
-    <row r="415">
+    <row r="415" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J415" s="9"/>
     </row>
-    <row r="416">
+    <row r="416" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J416" s="9"/>
     </row>
-    <row r="417">
+    <row r="417" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J417" s="9"/>
     </row>
-    <row r="418">
+    <row r="418" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J418" s="9"/>
     </row>
-    <row r="419">
+    <row r="419" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J419" s="9"/>
     </row>
-    <row r="420">
+    <row r="420" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J420" s="9"/>
     </row>
-    <row r="421">
+    <row r="421" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J421" s="9"/>
     </row>
-    <row r="422">
+    <row r="422" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J422" s="9"/>
     </row>
-    <row r="423">
+    <row r="423" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J423" s="9"/>
     </row>
-    <row r="424">
+    <row r="424" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J424" s="9"/>
     </row>
-    <row r="425">
+    <row r="425" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J425" s="9"/>
     </row>
-    <row r="426">
+    <row r="426" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J426" s="9"/>
     </row>
-    <row r="427">
+    <row r="427" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J427" s="9"/>
     </row>
-    <row r="428">
+    <row r="428" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J428" s="9"/>
     </row>
-    <row r="429">
+    <row r="429" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J429" s="9"/>
     </row>
-    <row r="430">
+    <row r="430" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J430" s="9"/>
     </row>
-    <row r="431">
+    <row r="431" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J431" s="9"/>
     </row>
-    <row r="432">
+    <row r="432" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J432" s="9"/>
     </row>
-    <row r="433">
+    <row r="433" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J433" s="9"/>
     </row>
-    <row r="434">
+    <row r="434" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J434" s="9"/>
     </row>
-    <row r="435">
+    <row r="435" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J435" s="9"/>
     </row>
-    <row r="436">
+    <row r="436" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J436" s="9"/>
     </row>
-    <row r="437">
+    <row r="437" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J437" s="9"/>
     </row>
-    <row r="438">
+    <row r="438" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J438" s="9"/>
     </row>
-    <row r="439">
+    <row r="439" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J439" s="9"/>
     </row>
-    <row r="440">
+    <row r="440" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J440" s="9"/>
     </row>
-    <row r="441">
+    <row r="441" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J441" s="9"/>
     </row>
-    <row r="442">
+    <row r="442" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J442" s="9"/>
     </row>
-    <row r="443">
+    <row r="443" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J443" s="9"/>
     </row>
-    <row r="444">
+    <row r="444" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J444" s="9"/>
     </row>
-    <row r="445">
+    <row r="445" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J445" s="9"/>
     </row>
-    <row r="446">
+    <row r="446" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J446" s="9"/>
     </row>
-    <row r="447">
+    <row r="447" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J447" s="9"/>
     </row>
-    <row r="448">
+    <row r="448" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J448" s="9"/>
     </row>
-    <row r="449">
+    <row r="449" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J449" s="9"/>
     </row>
-    <row r="450">
+    <row r="450" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J450" s="9"/>
     </row>
-    <row r="451">
+    <row r="451" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J451" s="9"/>
     </row>
-    <row r="452">
+    <row r="452" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J452" s="9"/>
     </row>
-    <row r="453">
+    <row r="453" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J453" s="9"/>
     </row>
-    <row r="454">
+    <row r="454" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J454" s="9"/>
     </row>
-    <row r="455">
+    <row r="455" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J455" s="9"/>
     </row>
-    <row r="456">
+    <row r="456" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J456" s="9"/>
     </row>
-    <row r="457">
+    <row r="457" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J457" s="9"/>
     </row>
-    <row r="458">
+    <row r="458" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J458" s="9"/>
     </row>
-    <row r="459">
+    <row r="459" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J459" s="9"/>
     </row>
-    <row r="460">
+    <row r="460" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J460" s="9"/>
     </row>
-    <row r="461">
+    <row r="461" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J461" s="9"/>
     </row>
-    <row r="462">
+    <row r="462" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J462" s="9"/>
     </row>
-    <row r="463">
+    <row r="463" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J463" s="9"/>
     </row>
-    <row r="464">
+    <row r="464" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J464" s="9"/>
     </row>
-    <row r="465">
+    <row r="465" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J465" s="9"/>
     </row>
-    <row r="466">
+    <row r="466" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J466" s="9"/>
     </row>
-    <row r="467">
+    <row r="467" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J467" s="9"/>
     </row>
-    <row r="468">
+    <row r="468" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J468" s="9"/>
     </row>
-    <row r="469">
+    <row r="469" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J469" s="9"/>
     </row>
-    <row r="470">
+    <row r="470" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J470" s="9"/>
     </row>
-    <row r="471">
+    <row r="471" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J471" s="9"/>
     </row>
-    <row r="472">
+    <row r="472" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J472" s="9"/>
     </row>
-    <row r="473">
+    <row r="473" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J473" s="9"/>
     </row>
-    <row r="474">
+    <row r="474" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J474" s="9"/>
     </row>
-    <row r="475">
+    <row r="475" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J475" s="9"/>
     </row>
-    <row r="476">
+    <row r="476" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J476" s="9"/>
     </row>
-    <row r="477">
+    <row r="477" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J477" s="9"/>
     </row>
-    <row r="478">
+    <row r="478" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J478" s="9"/>
     </row>
-    <row r="479">
+    <row r="479" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J479" s="9"/>
     </row>
-    <row r="480">
+    <row r="480" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J480" s="9"/>
     </row>
-    <row r="481">
+    <row r="481" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J481" s="9"/>
     </row>
-    <row r="482">
+    <row r="482" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J482" s="9"/>
     </row>
-    <row r="483">
+    <row r="483" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J483" s="9"/>
     </row>
-    <row r="484">
+    <row r="484" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J484" s="9"/>
     </row>
-    <row r="485">
+    <row r="485" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J485" s="9"/>
     </row>
-    <row r="486">
+    <row r="486" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J486" s="9"/>
     </row>
-    <row r="487">
+    <row r="487" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J487" s="9"/>
     </row>
-    <row r="488">
+    <row r="488" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J488" s="9"/>
     </row>
-    <row r="489">
+    <row r="489" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J489" s="9"/>
     </row>
-    <row r="490">
+    <row r="490" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J490" s="9"/>
     </row>
-    <row r="491">
+    <row r="491" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J491" s="9"/>
     </row>
-    <row r="492">
+    <row r="492" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J492" s="9"/>
     </row>
-    <row r="493">
+    <row r="493" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J493" s="9"/>
     </row>
-    <row r="494">
+    <row r="494" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J494" s="9"/>
     </row>
-    <row r="495">
+    <row r="495" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J495" s="9"/>
     </row>
-    <row r="496">
+    <row r="496" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J496" s="9"/>
     </row>
-    <row r="497">
+    <row r="497" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J497" s="9"/>
     </row>
-    <row r="498">
+    <row r="498" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J498" s="9"/>
     </row>
-    <row r="499">
+    <row r="499" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J499" s="9"/>
     </row>
-    <row r="500">
+    <row r="500" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J500" s="9"/>
     </row>
-    <row r="501">
+    <row r="501" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J501" s="9"/>
     </row>
-    <row r="502">
+    <row r="502" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J502" s="9"/>
     </row>
-    <row r="503">
+    <row r="503" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J503" s="9"/>
     </row>
-    <row r="504">
+    <row r="504" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J504" s="9"/>
     </row>
-    <row r="505">
+    <row r="505" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J505" s="9"/>
     </row>
-    <row r="506">
+    <row r="506" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J506" s="9"/>
     </row>
-    <row r="507">
+    <row r="507" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J507" s="9"/>
     </row>
-    <row r="508">
+    <row r="508" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J508" s="9"/>
     </row>
-    <row r="509">
+    <row r="509" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J509" s="9"/>
     </row>
-    <row r="510">
+    <row r="510" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J510" s="9"/>
     </row>
-    <row r="511">
+    <row r="511" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J511" s="9"/>
     </row>
-    <row r="512">
+    <row r="512" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J512" s="9"/>
     </row>
-    <row r="513">
+    <row r="513" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J513" s="9"/>
     </row>
-    <row r="514">
+    <row r="514" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J514" s="9"/>
     </row>
-    <row r="515">
+    <row r="515" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J515" s="9"/>
     </row>
-    <row r="516">
+    <row r="516" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J516" s="9"/>
     </row>
-    <row r="517">
+    <row r="517" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J517" s="9"/>
     </row>
-    <row r="518">
+    <row r="518" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J518" s="9"/>
     </row>
-    <row r="519">
+    <row r="519" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J519" s="9"/>
     </row>
-    <row r="520">
+    <row r="520" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J520" s="9"/>
     </row>
-    <row r="521">
+    <row r="521" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J521" s="9"/>
     </row>
-    <row r="522">
+    <row r="522" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J522" s="9"/>
     </row>
-    <row r="523">
+    <row r="523" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J523" s="9"/>
     </row>
-    <row r="524">
+    <row r="524" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J524" s="9"/>
     </row>
-    <row r="525">
+    <row r="525" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J525" s="9"/>
     </row>
-    <row r="526">
+    <row r="526" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J526" s="9"/>
     </row>
-    <row r="527">
+    <row r="527" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J527" s="9"/>
     </row>
-    <row r="528">
+    <row r="528" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J528" s="9"/>
     </row>
-    <row r="529">
+    <row r="529" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J529" s="9"/>
     </row>
-    <row r="530">
+    <row r="530" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J530" s="9"/>
     </row>
-    <row r="531">
+    <row r="531" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J531" s="9"/>
     </row>
-    <row r="532">
+    <row r="532" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J532" s="9"/>
     </row>
-    <row r="533">
+    <row r="533" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J533" s="9"/>
     </row>
-    <row r="534">
+    <row r="534" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J534" s="9"/>
     </row>
-    <row r="535">
+    <row r="535" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J535" s="9"/>
     </row>
-    <row r="536">
+    <row r="536" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J536" s="9"/>
     </row>
-    <row r="537">
+    <row r="537" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J537" s="9"/>
     </row>
-    <row r="538">
+    <row r="538" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J538" s="9"/>
     </row>
-    <row r="539">
+    <row r="539" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J539" s="9"/>
     </row>
-    <row r="540">
+    <row r="540" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J540" s="9"/>
     </row>
-    <row r="541">
+    <row r="541" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J541" s="9"/>
     </row>
-    <row r="542">
+    <row r="542" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J542" s="9"/>
     </row>
-    <row r="543">
+    <row r="543" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J543" s="9"/>
     </row>
-    <row r="544">
+    <row r="544" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J544" s="9"/>
     </row>
-    <row r="545">
+    <row r="545" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J545" s="9"/>
     </row>
-    <row r="546">
+    <row r="546" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J546" s="9"/>
     </row>
-    <row r="547">
+    <row r="547" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J547" s="9"/>
     </row>
-    <row r="548">
+    <row r="548" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J548" s="9"/>
     </row>
-    <row r="549">
+    <row r="549" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J549" s="9"/>
     </row>
-    <row r="550">
+    <row r="550" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J550" s="9"/>
     </row>
-    <row r="551">
+    <row r="551" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J551" s="9"/>
     </row>
-    <row r="552">
+    <row r="552" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J552" s="9"/>
     </row>
-    <row r="553">
+    <row r="553" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J553" s="9"/>
     </row>
-    <row r="554">
+    <row r="554" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J554" s="9"/>
     </row>
-    <row r="555">
+    <row r="555" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J555" s="9"/>
     </row>
-    <row r="556">
+    <row r="556" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J556" s="9"/>
     </row>
-    <row r="557">
+    <row r="557" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J557" s="9"/>
     </row>
-    <row r="558">
+    <row r="558" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J558" s="9"/>
     </row>
-    <row r="559">
+    <row r="559" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J559" s="9"/>
     </row>
-    <row r="560">
+    <row r="560" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J560" s="9"/>
     </row>
-    <row r="561">
+    <row r="561" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J561" s="9"/>
     </row>
-    <row r="562">
+    <row r="562" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J562" s="9"/>
     </row>
-    <row r="563">
+    <row r="563" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J563" s="9"/>
     </row>
-    <row r="564">
+    <row r="564" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J564" s="9"/>
     </row>
-    <row r="565">
+    <row r="565" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J565" s="9"/>
     </row>
-    <row r="566">
+    <row r="566" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J566" s="9"/>
     </row>
-    <row r="567">
+    <row r="567" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J567" s="9"/>
     </row>
-    <row r="568">
+    <row r="568" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J568" s="9"/>
     </row>
-    <row r="569">
+    <row r="569" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J569" s="9"/>
     </row>
-    <row r="570">
+    <row r="570" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J570" s="9"/>
     </row>
-    <row r="571">
+    <row r="571" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J571" s="9"/>
     </row>
-    <row r="572">
+    <row r="572" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J572" s="9"/>
     </row>
-    <row r="573">
+    <row r="573" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J573" s="9"/>
     </row>
-    <row r="574">
+    <row r="574" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J574" s="9"/>
     </row>
-    <row r="575">
+    <row r="575" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J575" s="9"/>
     </row>
-    <row r="576">
+    <row r="576" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J576" s="9"/>
     </row>
-    <row r="577">
+    <row r="577" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J577" s="9"/>
     </row>
-    <row r="578">
+    <row r="578" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J578" s="9"/>
     </row>
-    <row r="579">
+    <row r="579" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J579" s="9"/>
     </row>
-    <row r="580">
+    <row r="580" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J580" s="9"/>
     </row>
-    <row r="581">
+    <row r="581" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J581" s="9"/>
     </row>
-    <row r="582">
+    <row r="582" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J582" s="9"/>
     </row>
-    <row r="583">
+    <row r="583" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J583" s="9"/>
     </row>
-    <row r="584">
+    <row r="584" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J584" s="9"/>
     </row>
-    <row r="585">
+    <row r="585" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J585" s="9"/>
     </row>
-    <row r="586">
+    <row r="586" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J586" s="9"/>
     </row>
-    <row r="587">
+    <row r="587" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J587" s="9"/>
     </row>
-    <row r="588">
+    <row r="588" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J588" s="9"/>
     </row>
-    <row r="589">
+    <row r="589" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J589" s="9"/>
     </row>
-    <row r="590">
+    <row r="590" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J590" s="9"/>
     </row>
-    <row r="591">
+    <row r="591" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J591" s="9"/>
     </row>
-    <row r="592">
+    <row r="592" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J592" s="9"/>
     </row>
-    <row r="593">
+    <row r="593" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J593" s="9"/>
     </row>
-    <row r="594">
+    <row r="594" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J594" s="9"/>
     </row>
-    <row r="595">
+    <row r="595" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J595" s="9"/>
     </row>
-    <row r="596">
+    <row r="596" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J596" s="9"/>
     </row>
-    <row r="597">
+    <row r="597" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J597" s="9"/>
     </row>
-    <row r="598">
+    <row r="598" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J598" s="9"/>
     </row>
-    <row r="599">
+    <row r="599" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J599" s="9"/>
     </row>
-    <row r="600">
+    <row r="600" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J600" s="9"/>
     </row>
-    <row r="601">
+    <row r="601" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J601" s="9"/>
     </row>
-    <row r="602">
+    <row r="602" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J602" s="9"/>
     </row>
-    <row r="603">
+    <row r="603" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J603" s="9"/>
     </row>
-    <row r="604">
+    <row r="604" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J604" s="9"/>
     </row>
-    <row r="605">
+    <row r="605" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J605" s="9"/>
     </row>
-    <row r="606">
+    <row r="606" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J606" s="9"/>
     </row>
-    <row r="607">
+    <row r="607" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J607" s="9"/>
     </row>
-    <row r="608">
+    <row r="608" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J608" s="9"/>
     </row>
-    <row r="609">
+    <row r="609" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J609" s="9"/>
     </row>
-    <row r="610">
+    <row r="610" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J610" s="9"/>
     </row>
-    <row r="611">
+    <row r="611" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J611" s="9"/>
     </row>
-    <row r="612">
+    <row r="612" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J612" s="9"/>
     </row>
-    <row r="613">
+    <row r="613" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J613" s="9"/>
     </row>
-    <row r="614">
+    <row r="614" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J614" s="9"/>
     </row>
-    <row r="615">
+    <row r="615" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J615" s="9"/>
     </row>
-    <row r="616">
+    <row r="616" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J616" s="9"/>
     </row>
-    <row r="617">
+    <row r="617" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J617" s="9"/>
     </row>
-    <row r="618">
+    <row r="618" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J618" s="9"/>
     </row>
-    <row r="619">
+    <row r="619" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J619" s="9"/>
     </row>
-    <row r="620">
+    <row r="620" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J620" s="9"/>
     </row>
-    <row r="621">
+    <row r="621" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J621" s="9"/>
     </row>
-    <row r="622">
+    <row r="622" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J622" s="9"/>
     </row>
-    <row r="623">
+    <row r="623" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J623" s="9"/>
     </row>
-    <row r="624">
+    <row r="624" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J624" s="9"/>
     </row>
-    <row r="625">
+    <row r="625" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J625" s="9"/>
     </row>
-    <row r="626">
+    <row r="626" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J626" s="9"/>
     </row>
-    <row r="627">
+    <row r="627" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J627" s="9"/>
     </row>
-    <row r="628">
+    <row r="628" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J628" s="9"/>
     </row>
-    <row r="629">
+    <row r="629" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J629" s="9"/>
     </row>
-    <row r="630">
+    <row r="630" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J630" s="9"/>
     </row>
-    <row r="631">
+    <row r="631" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J631" s="9"/>
     </row>
-    <row r="632">
+    <row r="632" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J632" s="9"/>
     </row>
-    <row r="633">
+    <row r="633" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J633" s="9"/>
     </row>
-    <row r="634">
+    <row r="634" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J634" s="9"/>
     </row>
-    <row r="635">
+    <row r="635" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J635" s="9"/>
     </row>
-    <row r="636">
+    <row r="636" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J636" s="9"/>
     </row>
-    <row r="637">
+    <row r="637" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J637" s="9"/>
     </row>
-    <row r="638">
+    <row r="638" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J638" s="9"/>
     </row>
-    <row r="639">
+    <row r="639" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J639" s="9"/>
     </row>
-    <row r="640">
+    <row r="640" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J640" s="9"/>
     </row>
-    <row r="641">
+    <row r="641" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J641" s="9"/>
     </row>
-    <row r="642">
+    <row r="642" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J642" s="9"/>
     </row>
-    <row r="643">
+    <row r="643" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J643" s="9"/>
     </row>
-    <row r="644">
+    <row r="644" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J644" s="9"/>
     </row>
-    <row r="645">
+    <row r="645" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J645" s="9"/>
     </row>
-    <row r="646">
+    <row r="646" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J646" s="9"/>
     </row>
-    <row r="647">
+    <row r="647" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J647" s="9"/>
     </row>
-    <row r="648">
+    <row r="648" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J648" s="9"/>
     </row>
-    <row r="649">
+    <row r="649" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J649" s="9"/>
     </row>
-    <row r="650">
+    <row r="650" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J650" s="9"/>
     </row>
-    <row r="651">
+    <row r="651" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J651" s="9"/>
     </row>
-    <row r="652">
+    <row r="652" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J652" s="9"/>
     </row>
-    <row r="653">
+    <row r="653" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J653" s="9"/>
     </row>
-    <row r="654">
+    <row r="654" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J654" s="9"/>
     </row>
-    <row r="655">
+    <row r="655" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J655" s="9"/>
     </row>
-    <row r="656">
+    <row r="656" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J656" s="9"/>
     </row>
-    <row r="657">
+    <row r="657" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J657" s="9"/>
     </row>
-    <row r="658">
+    <row r="658" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J658" s="9"/>
     </row>
-    <row r="659">
+    <row r="659" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J659" s="9"/>
     </row>
-    <row r="660">
+    <row r="660" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J660" s="9"/>
     </row>
-    <row r="661">
+    <row r="661" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J661" s="9"/>
     </row>
-    <row r="662">
+    <row r="662" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J662" s="9"/>
     </row>
-    <row r="663">
+    <row r="663" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J663" s="9"/>
     </row>
-    <row r="664">
+    <row r="664" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J664" s="9"/>
     </row>
-    <row r="665">
+    <row r="665" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J665" s="9"/>
     </row>
-    <row r="666">
+    <row r="666" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J666" s="9"/>
     </row>
-    <row r="667">
+    <row r="667" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J667" s="9"/>
     </row>
-    <row r="668">
+    <row r="668" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J668" s="9"/>
     </row>
-    <row r="669">
+    <row r="669" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J669" s="9"/>
     </row>
-    <row r="670">
+    <row r="670" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J670" s="9"/>
     </row>
-    <row r="671">
+    <row r="671" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J671" s="9"/>
     </row>
-    <row r="672">
+    <row r="672" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J672" s="9"/>
     </row>
-    <row r="673">
+    <row r="673" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J673" s="9"/>
     </row>
-    <row r="674">
+    <row r="674" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J674" s="9"/>
     </row>
-    <row r="675">
+    <row r="675" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J675" s="9"/>
     </row>
-    <row r="676">
+    <row r="676" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J676" s="9"/>
     </row>
-    <row r="677">
+    <row r="677" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J677" s="9"/>
     </row>
-    <row r="678">
+    <row r="678" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J678" s="9"/>
     </row>
-    <row r="679">
+    <row r="679" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J679" s="9"/>
     </row>
-    <row r="680">
+    <row r="680" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J680" s="9"/>
     </row>
-    <row r="681">
+    <row r="681" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J681" s="9"/>
     </row>
-    <row r="682">
+    <row r="682" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J682" s="9"/>
     </row>
-    <row r="683">
+    <row r="683" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J683" s="9"/>
     </row>
-    <row r="684">
+    <row r="684" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J684" s="9"/>
     </row>
-    <row r="685">
+    <row r="685" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J685" s="9"/>
     </row>
-    <row r="686">
+    <row r="686" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J686" s="9"/>
     </row>
-    <row r="687">
+    <row r="687" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J687" s="9"/>
     </row>
-    <row r="688">
+    <row r="688" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J688" s="9"/>
     </row>
-    <row r="689">
+    <row r="689" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J689" s="9"/>
     </row>
-    <row r="690">
+    <row r="690" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J690" s="9"/>
     </row>
-    <row r="691">
+    <row r="691" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J691" s="9"/>
     </row>
-    <row r="692">
+    <row r="692" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J692" s="9"/>
     </row>
-    <row r="693">
+    <row r="693" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J693" s="9"/>
     </row>
-    <row r="694">
+    <row r="694" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J694" s="9"/>
     </row>
-    <row r="695">
+    <row r="695" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J695" s="9"/>
     </row>
-    <row r="696">
+    <row r="696" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J696" s="9"/>
     </row>
-    <row r="697">
+    <row r="697" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J697" s="9"/>
     </row>
-    <row r="698">
+    <row r="698" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J698" s="9"/>
     </row>
-    <row r="699">
+    <row r="699" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J699" s="9"/>
     </row>
-    <row r="700">
+    <row r="700" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J700" s="9"/>
     </row>
-    <row r="701">
+    <row r="701" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J701" s="9"/>
     </row>
-    <row r="702">
+    <row r="702" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J702" s="9"/>
     </row>
-    <row r="703">
+    <row r="703" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J703" s="9"/>
     </row>
-    <row r="704">
+    <row r="704" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J704" s="9"/>
     </row>
-    <row r="705">
+    <row r="705" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J705" s="9"/>
     </row>
-    <row r="706">
+    <row r="706" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J706" s="9"/>
     </row>
-    <row r="707">
+    <row r="707" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J707" s="9"/>
     </row>
-    <row r="708">
+    <row r="708" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J708" s="9"/>
     </row>
-    <row r="709">
+    <row r="709" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J709" s="9"/>
     </row>
-    <row r="710">
+    <row r="710" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J710" s="9"/>
     </row>
-    <row r="711">
+    <row r="711" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J711" s="9"/>
     </row>
-    <row r="712">
+    <row r="712" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J712" s="9"/>
     </row>
-    <row r="713">
+    <row r="713" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J713" s="9"/>
     </row>
-    <row r="714">
+    <row r="714" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J714" s="9"/>
     </row>
-    <row r="715">
+    <row r="715" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J715" s="9"/>
     </row>
-    <row r="716">
+    <row r="716" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J716" s="9"/>
     </row>
-    <row r="717">
+    <row r="717" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J717" s="9"/>
     </row>
-    <row r="718">
+    <row r="718" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J718" s="9"/>
     </row>
-    <row r="719">
+    <row r="719" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J719" s="9"/>
     </row>
-    <row r="720">
+    <row r="720" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J720" s="9"/>
     </row>
-    <row r="721">
+    <row r="721" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J721" s="9"/>
     </row>
-    <row r="722">
+    <row r="722" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J722" s="9"/>
     </row>
-    <row r="723">
+    <row r="723" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J723" s="9"/>
     </row>
-    <row r="724">
+    <row r="724" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J724" s="9"/>
     </row>
-    <row r="725">
+    <row r="725" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J725" s="9"/>
     </row>
-    <row r="726">
+    <row r="726" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J726" s="9"/>
     </row>
-    <row r="727">
+    <row r="727" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J727" s="9"/>
     </row>
-    <row r="728">
+    <row r="728" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J728" s="9"/>
     </row>
-    <row r="729">
+    <row r="729" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J729" s="9"/>
     </row>
-    <row r="730">
+    <row r="730" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J730" s="9"/>
     </row>
-    <row r="731">
+    <row r="731" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J731" s="9"/>
     </row>
-    <row r="732">
+    <row r="732" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J732" s="9"/>
     </row>
-    <row r="733">
+    <row r="733" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J733" s="9"/>
     </row>
-    <row r="734">
+    <row r="734" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J734" s="9"/>
     </row>
-    <row r="735">
+    <row r="735" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J735" s="9"/>
     </row>
-    <row r="736">
+    <row r="736" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J736" s="9"/>
     </row>
-    <row r="737">
+    <row r="737" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J737" s="9"/>
     </row>
-    <row r="738">
+    <row r="738" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J738" s="9"/>
     </row>
-    <row r="739">
+    <row r="739" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J739" s="9"/>
     </row>
-    <row r="740">
+    <row r="740" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J740" s="9"/>
     </row>
-    <row r="741">
+    <row r="741" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J741" s="9"/>
     </row>
-    <row r="742">
+    <row r="742" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J742" s="9"/>
     </row>
-    <row r="743">
+    <row r="743" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J743" s="9"/>
     </row>
-    <row r="744">
+    <row r="744" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J744" s="9"/>
     </row>
-    <row r="745">
+    <row r="745" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J745" s="9"/>
     </row>
-    <row r="746">
+    <row r="746" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J746" s="9"/>
     </row>
-    <row r="747">
+    <row r="747" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J747" s="9"/>
     </row>
-    <row r="748">
+    <row r="748" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J748" s="9"/>
     </row>
-    <row r="749">
+    <row r="749" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J749" s="9"/>
     </row>
-    <row r="750">
+    <row r="750" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J750" s="9"/>
     </row>
-    <row r="751">
+    <row r="751" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J751" s="9"/>
     </row>
-    <row r="752">
+    <row r="752" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J752" s="9"/>
     </row>
-    <row r="753">
+    <row r="753" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J753" s="9"/>
     </row>
-    <row r="754">
+    <row r="754" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J754" s="9"/>
     </row>
-    <row r="755">
+    <row r="755" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J755" s="9"/>
     </row>
-    <row r="756">
+    <row r="756" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J756" s="9"/>
     </row>
-    <row r="757">
+    <row r="757" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J757" s="9"/>
     </row>
-    <row r="758">
+    <row r="758" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J758" s="9"/>
     </row>
-    <row r="759">
+    <row r="759" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J759" s="9"/>
     </row>
-    <row r="760">
+    <row r="760" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J760" s="9"/>
     </row>
-    <row r="761">
+    <row r="761" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J761" s="9"/>
     </row>
-    <row r="762">
+    <row r="762" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J762" s="9"/>
     </row>
-    <row r="763">
+    <row r="763" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J763" s="9"/>
     </row>
-    <row r="764">
+    <row r="764" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J764" s="9"/>
     </row>
-    <row r="765">
+    <row r="765" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J765" s="9"/>
     </row>
-    <row r="766">
+    <row r="766" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J766" s="9"/>
     </row>
-    <row r="767">
+    <row r="767" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J767" s="9"/>
     </row>
-    <row r="768">
+    <row r="768" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J768" s="9"/>
     </row>
-    <row r="769">
+    <row r="769" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J769" s="9"/>
     </row>
-    <row r="770">
+    <row r="770" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J770" s="9"/>
     </row>
-    <row r="771">
+    <row r="771" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J771" s="9"/>
     </row>
-    <row r="772">
+    <row r="772" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J772" s="9"/>
     </row>
-    <row r="773">
+    <row r="773" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J773" s="9"/>
     </row>
-    <row r="774">
+    <row r="774" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J774" s="9"/>
     </row>
-    <row r="775">
+    <row r="775" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J775" s="9"/>
     </row>
-    <row r="776">
+    <row r="776" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J776" s="9"/>
     </row>
-    <row r="777">
+    <row r="777" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J777" s="9"/>
     </row>
-    <row r="778">
+    <row r="778" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J778" s="9"/>
     </row>
-    <row r="779">
+    <row r="779" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J779" s="9"/>
     </row>
-    <row r="780">
+    <row r="780" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J780" s="9"/>
     </row>
-    <row r="781">
+    <row r="781" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J781" s="9"/>
     </row>
-    <row r="782">
+    <row r="782" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J782" s="9"/>
     </row>
-    <row r="783">
+    <row r="783" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J783" s="9"/>
     </row>
-    <row r="784">
+    <row r="784" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J784" s="9"/>
     </row>
-    <row r="785">
+    <row r="785" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J785" s="9"/>
     </row>
-    <row r="786">
+    <row r="786" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J786" s="9"/>
     </row>
-    <row r="787">
+    <row r="787" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J787" s="9"/>
     </row>
-    <row r="788">
+    <row r="788" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J788" s="9"/>
     </row>
-    <row r="789">
+    <row r="789" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J789" s="9"/>
     </row>
-    <row r="790">
+    <row r="790" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J790" s="9"/>
     </row>
-    <row r="791">
+    <row r="791" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J791" s="9"/>
     </row>
-    <row r="792">
+    <row r="792" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J792" s="9"/>
     </row>
-    <row r="793">
+    <row r="793" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J793" s="9"/>
     </row>
-    <row r="794">
+    <row r="794" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J794" s="9"/>
     </row>
-    <row r="795">
+    <row r="795" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J795" s="9"/>
     </row>
-    <row r="796">
+    <row r="796" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J796" s="9"/>
     </row>
-    <row r="797">
+    <row r="797" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J797" s="9"/>
     </row>
-    <row r="798">
+    <row r="798" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J798" s="9"/>
     </row>
-    <row r="799">
+    <row r="799" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J799" s="9"/>
     </row>
-    <row r="800">
+    <row r="800" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J800" s="9"/>
     </row>
-    <row r="801">
+    <row r="801" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J801" s="9"/>
     </row>
-    <row r="802">
+    <row r="802" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J802" s="9"/>
     </row>
-    <row r="803">
+    <row r="803" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J803" s="9"/>
     </row>
-    <row r="804">
+    <row r="804" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J804" s="9"/>
     </row>
-    <row r="805">
+    <row r="805" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J805" s="9"/>
     </row>
-    <row r="806">
+    <row r="806" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J806" s="9"/>
     </row>
-    <row r="807">
+    <row r="807" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J807" s="9"/>
     </row>
-    <row r="808">
+    <row r="808" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J808" s="9"/>
     </row>
-    <row r="809">
+    <row r="809" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J809" s="9"/>
     </row>
-    <row r="810">
+    <row r="810" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J810" s="9"/>
     </row>
-    <row r="811">
+    <row r="811" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J811" s="9"/>
     </row>
-    <row r="812">
+    <row r="812" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J812" s="9"/>
     </row>
-    <row r="813">
+    <row r="813" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J813" s="9"/>
     </row>
-    <row r="814">
+    <row r="814" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J814" s="9"/>
     </row>
-    <row r="815">
+    <row r="815" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J815" s="9"/>
     </row>
-    <row r="816">
+    <row r="816" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J816" s="9"/>
     </row>
-    <row r="817">
+    <row r="817" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J817" s="9"/>
     </row>
-    <row r="818">
+    <row r="818" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J818" s="9"/>
     </row>
-    <row r="819">
+    <row r="819" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J819" s="9"/>
     </row>
-    <row r="820">
+    <row r="820" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J820" s="9"/>
     </row>
-    <row r="821">
+    <row r="821" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J821" s="9"/>
     </row>
-    <row r="822">
+    <row r="822" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J822" s="9"/>
     </row>
-    <row r="823">
+    <row r="823" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J823" s="9"/>
     </row>
-    <row r="824">
+    <row r="824" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J824" s="9"/>
     </row>
-    <row r="825">
+    <row r="825" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J825" s="9"/>
     </row>
-    <row r="826">
+    <row r="826" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J826" s="9"/>
     </row>
-    <row r="827">
+    <row r="827" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J827" s="9"/>
     </row>
-    <row r="828">
+    <row r="828" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J828" s="9"/>
     </row>
-    <row r="829">
+    <row r="829" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J829" s="9"/>
     </row>
-    <row r="830">
+    <row r="830" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J830" s="9"/>
     </row>
-    <row r="831">
+    <row r="831" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J831" s="9"/>
     </row>
-    <row r="832">
+    <row r="832" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J832" s="9"/>
     </row>
-    <row r="833">
+    <row r="833" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J833" s="9"/>
     </row>
-    <row r="834">
+    <row r="834" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J834" s="9"/>
     </row>
-    <row r="835">
+    <row r="835" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J835" s="9"/>
     </row>
-    <row r="836">
+    <row r="836" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J836" s="9"/>
     </row>
-    <row r="837">
+    <row r="837" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J837" s="9"/>
     </row>
-    <row r="838">
+    <row r="838" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J838" s="9"/>
     </row>
-    <row r="839">
+    <row r="839" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J839" s="9"/>
     </row>
-    <row r="840">
+    <row r="840" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J840" s="9"/>
     </row>
-    <row r="841">
+    <row r="841" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J841" s="9"/>
     </row>
-    <row r="842">
+    <row r="842" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J842" s="9"/>
     </row>
-    <row r="843">
+    <row r="843" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J843" s="9"/>
     </row>
-    <row r="844">
+    <row r="844" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J844" s="9"/>
     </row>
-    <row r="845">
+    <row r="845" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J845" s="9"/>
     </row>
-    <row r="846">
+    <row r="846" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J846" s="9"/>
     </row>
-    <row r="847">
+    <row r="847" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J847" s="9"/>
     </row>
-    <row r="848">
+    <row r="848" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J848" s="9"/>
     </row>
-    <row r="849">
+    <row r="849" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J849" s="9"/>
     </row>
-    <row r="850">
+    <row r="850" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J850" s="9"/>
     </row>
-    <row r="851">
+    <row r="851" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J851" s="9"/>
     </row>
-    <row r="852">
+    <row r="852" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J852" s="9"/>
     </row>
-    <row r="853">
+    <row r="853" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J853" s="9"/>
     </row>
-    <row r="854">
+    <row r="854" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J854" s="9"/>
     </row>
-    <row r="855">
+    <row r="855" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J855" s="9"/>
     </row>
-    <row r="856">
+    <row r="856" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J856" s="9"/>
     </row>
-    <row r="857">
+    <row r="857" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J857" s="9"/>
     </row>
-    <row r="858">
+    <row r="858" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J858" s="9"/>
     </row>
-    <row r="859">
+    <row r="859" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J859" s="9"/>
     </row>
-    <row r="860">
+    <row r="860" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J860" s="9"/>
     </row>
-    <row r="861">
+    <row r="861" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J861" s="9"/>
     </row>
-    <row r="862">
+    <row r="862" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J862" s="9"/>
     </row>
-    <row r="863">
+    <row r="863" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J863" s="9"/>
     </row>
-    <row r="864">
+    <row r="864" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J864" s="9"/>
     </row>
-    <row r="865">
+    <row r="865" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J865" s="9"/>
     </row>
-    <row r="866">
+    <row r="866" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J866" s="9"/>
     </row>
-    <row r="867">
+    <row r="867" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J867" s="9"/>
     </row>
-    <row r="868">
+    <row r="868" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J868" s="9"/>
     </row>
-    <row r="869">
+    <row r="869" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J869" s="9"/>
     </row>
-    <row r="870">
+    <row r="870" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J870" s="9"/>
     </row>
-    <row r="871">
+    <row r="871" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J871" s="9"/>
     </row>
-    <row r="872">
+    <row r="872" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J872" s="9"/>
     </row>
-    <row r="873">
+    <row r="873" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J873" s="9"/>
     </row>
-    <row r="874">
+    <row r="874" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J874" s="9"/>
     </row>
-    <row r="875">
+    <row r="875" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J875" s="9"/>
     </row>
-    <row r="876">
+    <row r="876" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J876" s="9"/>
     </row>
-    <row r="877">
+    <row r="877" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J877" s="9"/>
     </row>
-    <row r="878">
+    <row r="878" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J878" s="9"/>
     </row>
-    <row r="879">
+    <row r="879" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J879" s="9"/>
     </row>
-    <row r="880">
+    <row r="880" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J880" s="9"/>
     </row>
-    <row r="881">
+    <row r="881" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J881" s="9"/>
     </row>
-    <row r="882">
+    <row r="882" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J882" s="9"/>
     </row>
-    <row r="883">
+    <row r="883" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J883" s="9"/>
     </row>
-    <row r="884">
+    <row r="884" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J884" s="9"/>
     </row>
-    <row r="885">
+    <row r="885" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J885" s="9"/>
     </row>
-    <row r="886">
+    <row r="886" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J886" s="9"/>
     </row>
-    <row r="887">
+    <row r="887" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J887" s="9"/>
     </row>
-    <row r="888">
+    <row r="888" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J888" s="9"/>
     </row>
-    <row r="889">
+    <row r="889" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J889" s="9"/>
     </row>
-    <row r="890">
+    <row r="890" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J890" s="9"/>
     </row>
-    <row r="891">
+    <row r="891" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J891" s="9"/>
     </row>
-    <row r="892">
+    <row r="892" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J892" s="9"/>
     </row>
-    <row r="893">
+    <row r="893" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J893" s="9"/>
     </row>
-    <row r="894">
+    <row r="894" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J894" s="9"/>
     </row>
-    <row r="895">
+    <row r="895" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J895" s="9"/>
     </row>
-    <row r="896">
+    <row r="896" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J896" s="9"/>
     </row>
-    <row r="897">
+    <row r="897" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J897" s="9"/>
     </row>
-    <row r="898">
+    <row r="898" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J898" s="9"/>
     </row>
-    <row r="899">
+    <row r="899" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J899" s="9"/>
     </row>
-    <row r="900">
+    <row r="900" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J900" s="9"/>
     </row>
-    <row r="901">
+    <row r="901" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J901" s="9"/>
     </row>
-    <row r="902">
+    <row r="902" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J902" s="9"/>
     </row>
-    <row r="903">
+    <row r="903" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J903" s="9"/>
     </row>
-    <row r="904">
+    <row r="904" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J904" s="9"/>
     </row>
-    <row r="905">
+    <row r="905" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J905" s="9"/>
     </row>
-    <row r="906">
+    <row r="906" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J906" s="9"/>
     </row>
-    <row r="907">
+    <row r="907" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J907" s="9"/>
     </row>
-    <row r="908">
+    <row r="908" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J908" s="9"/>
     </row>
-    <row r="909">
+    <row r="909" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J909" s="9"/>
     </row>
-    <row r="910">
+    <row r="910" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J910" s="9"/>
     </row>
-    <row r="911">
+    <row r="911" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J911" s="9"/>
     </row>
-    <row r="912">
+    <row r="912" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J912" s="9"/>
     </row>
-    <row r="913">
+    <row r="913" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J913" s="9"/>
     </row>
-    <row r="914">
+    <row r="914" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J914" s="9"/>
     </row>
-    <row r="915">
+    <row r="915" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J915" s="9"/>
     </row>
-    <row r="916">
+    <row r="916" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J916" s="9"/>
     </row>
-    <row r="917">
+    <row r="917" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J917" s="9"/>
     </row>
-    <row r="918">
+    <row r="918" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J918" s="9"/>
     </row>
-    <row r="919">
+    <row r="919" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J919" s="9"/>
     </row>
-    <row r="920">
+    <row r="920" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J920" s="9"/>
     </row>
-    <row r="921">
+    <row r="921" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J921" s="9"/>
     </row>
-    <row r="922">
+    <row r="922" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J922" s="9"/>
     </row>
-    <row r="923">
+    <row r="923" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J923" s="9"/>
     </row>
-    <row r="924">
+    <row r="924" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J924" s="9"/>
     </row>
-    <row r="925">
+    <row r="925" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J925" s="9"/>
     </row>
-    <row r="926">
+    <row r="926" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J926" s="9"/>
     </row>
-    <row r="927">
+    <row r="927" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J927" s="9"/>
     </row>
-    <row r="928">
+    <row r="928" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J928" s="9"/>
     </row>
-    <row r="929">
+    <row r="929" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J929" s="9"/>
     </row>
-    <row r="930">
+    <row r="930" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J930" s="9"/>
     </row>
-    <row r="931">
+    <row r="931" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J931" s="9"/>
     </row>
-    <row r="932">
+    <row r="932" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J932" s="9"/>
     </row>
-    <row r="933">
+    <row r="933" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J933" s="9"/>
     </row>
-    <row r="934">
+    <row r="934" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J934" s="9"/>
     </row>
-    <row r="935">
+    <row r="935" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J935" s="9"/>
     </row>
-    <row r="936">
+    <row r="936" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J936" s="9"/>
     </row>
-    <row r="937">
+    <row r="937" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J937" s="9"/>
     </row>
-    <row r="938">
+    <row r="938" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J938" s="9"/>
     </row>
-    <row r="939">
+    <row r="939" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J939" s="9"/>
     </row>
-    <row r="940">
+    <row r="940" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J940" s="9"/>
     </row>
-    <row r="941">
+    <row r="941" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J941" s="9"/>
     </row>
-    <row r="942">
+    <row r="942" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J942" s="9"/>
     </row>
-    <row r="943">
+    <row r="943" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J943" s="9"/>
     </row>
-    <row r="944">
+    <row r="944" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J944" s="9"/>
     </row>
-    <row r="945">
+    <row r="945" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J945" s="9"/>
     </row>
-    <row r="946">
+    <row r="946" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J946" s="9"/>
     </row>
-    <row r="947">
+    <row r="947" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J947" s="9"/>
     </row>
-    <row r="948">
+    <row r="948" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J948" s="9"/>
     </row>
-    <row r="949">
+    <row r="949" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J949" s="9"/>
     </row>
-    <row r="950">
+    <row r="950" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J950" s="9"/>
     </row>
-    <row r="951">
+    <row r="951" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J951" s="9"/>
     </row>
-    <row r="952">
+    <row r="952" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J952" s="9"/>
     </row>
-    <row r="953">
+    <row r="953" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J953" s="9"/>
     </row>
-    <row r="954">
+    <row r="954" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J954" s="9"/>
     </row>
-    <row r="955">
+    <row r="955" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J955" s="9"/>
     </row>
-    <row r="956">
+    <row r="956" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J956" s="9"/>
     </row>
-    <row r="957">
+    <row r="957" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J957" s="9"/>
     </row>
-    <row r="958">
+    <row r="958" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J958" s="9"/>
     </row>
-    <row r="959">
+    <row r="959" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J959" s="9"/>
     </row>
-    <row r="960">
+    <row r="960" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J960" s="9"/>
     </row>
-    <row r="961">
+    <row r="961" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J961" s="9"/>
     </row>
-    <row r="962">
+    <row r="962" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J962" s="9"/>
     </row>
-    <row r="963">
+    <row r="963" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J963" s="9"/>
     </row>
-    <row r="964">
+    <row r="964" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J964" s="9"/>
     </row>
-    <row r="965">
+    <row r="965" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J965" s="9"/>
     </row>
-    <row r="966">
+    <row r="966" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J966" s="9"/>
     </row>
-    <row r="967">
+    <row r="967" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J967" s="9"/>
     </row>
-    <row r="968">
+    <row r="968" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J968" s="9"/>
     </row>
-    <row r="969">
+    <row r="969" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J969" s="9"/>
     </row>
-    <row r="970">
+    <row r="970" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J970" s="9"/>
     </row>
-    <row r="971">
+    <row r="971" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J971" s="9"/>
     </row>
-    <row r="972">
+    <row r="972" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J972" s="9"/>
     </row>
-    <row r="973">
+    <row r="973" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J973" s="9"/>
     </row>
-    <row r="974">
+    <row r="974" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J974" s="9"/>
     </row>
-    <row r="975">
+    <row r="975" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J975" s="9"/>
     </row>
-    <row r="976">
+    <row r="976" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J976" s="9"/>
     </row>
-    <row r="977">
+    <row r="977" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J977" s="9"/>
     </row>
-    <row r="978">
+    <row r="978" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J978" s="9"/>
     </row>
-    <row r="979">
+    <row r="979" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J979" s="9"/>
     </row>
-    <row r="980">
+    <row r="980" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J980" s="9"/>
     </row>
-    <row r="981">
+    <row r="981" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J981" s="9"/>
     </row>
-    <row r="982">
+    <row r="982" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J982" s="9"/>
     </row>
-    <row r="983">
+    <row r="983" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J983" s="9"/>
     </row>
-    <row r="984">
+    <row r="984" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J984" s="9"/>
     </row>
-    <row r="985">
+    <row r="985" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J985" s="9"/>
     </row>
-    <row r="986">
+    <row r="986" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J986" s="9"/>
     </row>
-    <row r="987">
+    <row r="987" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J987" s="9"/>
     </row>
-    <row r="988">
+    <row r="988" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J988" s="9"/>
     </row>
-    <row r="989">
+    <row r="989" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J989" s="9"/>
     </row>
-    <row r="990">
+    <row r="990" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J990" s="9"/>
     </row>
-    <row r="991">
+    <row r="991" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J991" s="9"/>
     </row>
-    <row r="992">
+    <row r="992" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J992" s="9"/>
     </row>
-    <row r="993">
+    <row r="993" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J993" s="9"/>
     </row>
-    <row r="994">
+    <row r="994" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J994" s="9"/>
     </row>
-    <row r="995">
+    <row r="995" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J995" s="9"/>
     </row>
-    <row r="996">
+    <row r="996" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J996" s="9"/>
     </row>
-    <row r="997">
+    <row r="997" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J997" s="9"/>
     </row>
-    <row r="998">
+    <row r="998" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J998" s="9"/>
     </row>
-    <row r="999">
+    <row r="999" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J999" s="9"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="10:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J1000" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/functions/time/Disturbances_EDTF.xlsx
+++ b/functions/time/Disturbances_EDTF.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\functions\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA2F6A-8509-44E4-B313-54EA1B4EC587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF803A5C-652A-4D24-AFBC-C9ACB6455F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -350,16 +353,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -658,16 +664,21 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
